--- a/EconomicProject/Examples/Report_E2.xlsx
+++ b/EconomicProject/Examples/Report_E2.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>91:171</t>
+    <t>143:217</t>
   </si>
   <si>
-    <t>171:251</t>
+    <t>217:291</t>
   </si>
   <si>
-    <t>251:330</t>
+    <t>291:365</t>
   </si>
   <si>
-    <t>330:410</t>
+    <t>365:439</t>
   </si>
   <si>
-    <t>410:490</t>
+    <t>439:513</t>
   </si>
   <si>
-    <t>490:569</t>
+    <t>513:587</t>
   </si>
   <si>
-    <t>569:649</t>
+    <t>587:661</t>
   </si>
   <si>
-    <t>649:729</t>
+    <t>661:735</t>
   </si>
   <si>
-    <t>729:809</t>
+    <t>735:809</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91:171</c:v>
+                  <c:v>143:217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171:251</c:v>
+                  <c:v>217:291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251:330</c:v>
+                  <c:v>291:365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330:410</c:v>
+                  <c:v>365:439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410:490</c:v>
+                  <c:v>439:513</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>490:569</c:v>
+                  <c:v>513:587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>569:649</c:v>
+                  <c:v>587:661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>649:729</c:v>
+                  <c:v>661:735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>729:809</c:v>
+                  <c:v>735:809</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24142,13 +24142,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>378.9973500613917</v>
+        <v>360.2211819585467</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24156,13 +24156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>254.4407740083847</v>
+        <v>342.5577772855749</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24170,13 +24170,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>532.232801631549</v>
+        <v>511.3670316420958</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24184,13 +24184,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>717.3827122782983</v>
+        <v>636.6176378236612</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24198,13 +24198,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>667.3690365905907</v>
+        <v>343.4915799413395</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24212,13 +24212,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>618.8550351952319</v>
+        <v>311.6246499919681</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24226,13 +24226,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>286.4237339766864</v>
+        <v>304.2313228176614</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24240,13 +24240,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>457.2694948959635</v>
+        <v>433.7748311767621</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24254,13 +24254,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>658.6567846951259</v>
+        <v>600.6503068581104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24268,7 +24268,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>330.6977227841369</v>
+        <v>313.0112293544399</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>542.8581767473877</v>
+        <v>420.0884352608981</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>251.140748116724</v>
+        <v>620.861939079</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>663.6718073212105</v>
+        <v>552.4366716905686</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>597.3919535742501</v>
+        <v>346.4360881775862</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24308,7 +24308,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>316.852251864145</v>
+        <v>575.5968527246998</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>448.3396003799902</v>
+        <v>544.1312537551613</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>315.5007275097234</v>
+        <v>230.8304492429332</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>343.8547816512095</v>
+        <v>696.5203173705401</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>459.0078302765958</v>
+        <v>533.2520641340839</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>508.5459481404818</v>
+        <v>528.3871827021998</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>457.4158194067362</v>
+        <v>707.4492842941382</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>316.5668844946941</v>
+        <v>276.6852656364907</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>534.8588445502876</v>
+        <v>696.8002142464574</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>279.2703170672667</v>
+        <v>292.0372755397246</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>356.9901066835622</v>
+        <v>284.6087869909196</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>340.1620425361356</v>
+        <v>506.8992222435236</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>613.1587067818508</v>
+        <v>414.0729162514374</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>548.3727207763898</v>
+        <v>321.0637508321789</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>231.8530571671039</v>
+        <v>231.6109996886906</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>212.9417857401651</v>
+        <v>217.1576299124931</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>490.2802039503831</v>
+        <v>232.9833217827126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>181.2521956162259</v>
+        <v>660.0963260986342</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>380.1300131435655</v>
+        <v>401.9840028346239</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>386.2076577055341</v>
+        <v>408.5445365008997</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>655.6789160152429</v>
+        <v>663.8150416773695</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>591.4195711170619</v>
+        <v>587.9503178749113</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>452.7211366760728</v>
+        <v>560.5916147066337</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>471.8472007795484</v>
+        <v>544.8701447730831</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>330.3441827928656</v>
+        <v>390.5487963918256</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>410.9509498049399</v>
+        <v>779.8953008256046</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>433.5946791947673</v>
+        <v>541.1001901615551</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>356.6930797671412</v>
+        <v>605.7603116227266</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>396.4605302979093</v>
+        <v>471.2076261494465</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>241.2505949155845</v>
+        <v>325.8447739783225</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>502.4086335226697</v>
+        <v>331.2023825051753</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>505.0307103445094</v>
+        <v>346.9336434030924</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>470.8686694847858</v>
+        <v>620.6695946376177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>583.7281330162481</v>
+        <v>469.8426535023914</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>411.7405953978842</v>
+        <v>612.9826413900525</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>319.575632541221</v>
+        <v>380.5129202059034</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>415.8622695044357</v>
+        <v>514.6376598938515</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>577.1333738257252</v>
+        <v>588.1262790344753</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>345.4598472633501</v>
+        <v>434.0081179807508</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>618.5318785320818</v>
+        <v>668.2693695275318</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>535.764987812139</v>
+        <v>405.5377844830869</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>360.7806282461186</v>
+        <v>550.2927761460024</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>429.3732717293743</v>
+        <v>427.9201185569537</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>700.240613513887</v>
+        <v>500.5279330318053</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>562.0287126990003</v>
+        <v>446.0908919082346</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>506.9433244292727</v>
+        <v>564.5228713065005</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>678.6809540752423</v>
+        <v>666.6915951433982</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>368.988346238497</v>
+        <v>591.5155292697925</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>639.7283582332021</v>
+        <v>553.2263624822044</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>521.3408119225862</v>
+        <v>247.2850506320984</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>453.5940085066351</v>
+        <v>585.6866093275896</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>721.5983472687464</v>
+        <v>546.7054867883718</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>255.7458429088096</v>
+        <v>624.0712738040447</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>448.4642060464043</v>
+        <v>553.1233610038269</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>550.0126868338082</v>
+        <v>323.4315510928515</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>368.5602781113652</v>
+        <v>459.592391743598</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>491.2176161227914</v>
+        <v>426.8823870004326</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>469.8846231460125</v>
+        <v>594.809444372583</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>632.1055777448795</v>
+        <v>524.5667640158314</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>357.5803559422596</v>
+        <v>475.0841188889831</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>593.0988706401877</v>
+        <v>634.2569601748249</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>246.6908518274203</v>
+        <v>530.9117370455318</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>667.4590143342265</v>
+        <v>346.1837087479296</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>319.7040162563947</v>
+        <v>485.1994688242231</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>216.322517704079</v>
+        <v>279.1390669062071</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>171.432819461453</v>
+        <v>353.4908451961136</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>413.7015530570748</v>
+        <v>157.6786285624399</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>739.2256747644169</v>
+        <v>304.3401221122279</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>490.232904641294</v>
+        <v>440.5147928480837</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>203.1395154410655</v>
+        <v>292.6811741049434</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>547.3238966444449</v>
+        <v>544.728120917839</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>637.7238712513196</v>
+        <v>341.8915884777999</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>533.9392896652819</v>
+        <v>435.6543519693559</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>236.1211085750658</v>
+        <v>669.3664763144295</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>253.4191006529072</v>
+        <v>334.0499504987319</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>214.129146718234</v>
+        <v>558.8299209915403</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>648.1706592803816</v>
+        <v>651.3977234660746</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>594.0475416480645</v>
+        <v>418.1417869392682</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>731.358913573126</v>
+        <v>628.8763219390087</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>749.075014153706</v>
+        <v>461.6482680844931</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>656.0187077406872</v>
+        <v>256.5275135637779</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>406.9915746680174</v>
+        <v>588.5590978632262</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>412.5484739982081</v>
+        <v>347.9234527400982</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>720.4419091148809</v>
+        <v>278.1146354542167</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>566.3966878045981</v>
+        <v>181.8392379869183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>551.1520003336813</v>
+        <v>510.9497686968505</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>425.7957186387208</v>
+        <v>572.7680763172573</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>366.5675069194259</v>
+        <v>405.1888550635285</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>721.6547244587467</v>
+        <v>529.3444338170063</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>478.0434383826398</v>
+        <v>477.5515008438209</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>350.5163379190885</v>
+        <v>459.0869218498626</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>305.2113064981331</v>
+        <v>271.3643828847267</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>226.6531937181835</v>
+        <v>582.468361855801</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>390.8492294303206</v>
+        <v>314.0673459247123</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>699.1715743520574</v>
+        <v>388.4646749342434</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>195.3827067645202</v>
+        <v>398.4546574176414</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>412.6227083778659</v>
+        <v>752.3639262362207</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>359.0179450386046</v>
+        <v>628.5044806864894</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>410.6055362571344</v>
+        <v>398.9767395943774</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>282.0890141204452</v>
+        <v>381.4170514987198</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>474.6115348738459</v>
+        <v>508.8236205952225</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>420.1309642304747</v>
+        <v>690.2379277794838</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>607.1834012064419</v>
+        <v>680.0025647675125</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>423.2039231839816</v>
+        <v>580.8519172686086</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>432.0395153806965</v>
+        <v>577.7324576690329</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>331.2793220713116</v>
+        <v>191.962177554056</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>524.4693155309285</v>
+        <v>512.8245269049862</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>444.9858759061723</v>
+        <v>369.3210468923887</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>689.9530542768463</v>
+        <v>393.259559340041</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>354.8672452290776</v>
+        <v>409.1881974854342</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>418.0526829457559</v>
+        <v>611.2773198560848</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>511.3974967749562</v>
+        <v>345.5388653138307</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>411.222788142471</v>
+        <v>324.257964242715</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>685.4001911578974</v>
+        <v>704.4242088988964</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>496.1385908445749</v>
+        <v>529.0236083247543</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>328.4321349311535</v>
+        <v>241.1213715922666</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>291.9015241041748</v>
+        <v>514.1908249495659</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>373.5177243682385</v>
+        <v>208.5770687988662</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>246.1742575880459</v>
+        <v>551.4851425706546</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>329.7225349208546</v>
+        <v>434.2961640431778</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>457.5136034291391</v>
+        <v>566.2377756276612</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>613.6541317009136</v>
+        <v>627.9916059269941</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>653.9909615064539</v>
+        <v>331.13050767091</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>367.0191571217295</v>
+        <v>161.2297572199156</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>374.2936666417124</v>
+        <v>402.257716420876</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>559.9670983263532</v>
+        <v>266.3545158183683</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>569.4265613376349</v>
+        <v>627.328819420696</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>652.1310567649393</v>
+        <v>337.676888662048</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>492.9478858833979</v>
+        <v>590.0442304006165</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>362.4190516429748</v>
+        <v>372.5046024960955</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>622.5203172277644</v>
+        <v>301.4512849499214</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>713.557460217468</v>
+        <v>657.9441326101473</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>364.442840519863</v>
+        <v>273.1097847946294</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>683.4304389145798</v>
+        <v>615.872552225094</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>474.6990240424386</v>
+        <v>620.1823967773225</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>257.7326466398808</v>
+        <v>731.271479458889</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>608.252403027437</v>
+        <v>511.3976186012744</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>466.2536466557528</v>
+        <v>419.3195358473951</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>645.4609381102291</v>
+        <v>564.169413081166</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>358.7535006145789</v>
+        <v>668.18017190454</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>226.4996212070694</v>
+        <v>418.6518386814421</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>535.0633962176538</v>
+        <v>277.327871134924</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>334.0553395489754</v>
+        <v>511.862294396375</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>345.8039402477599</v>
+        <v>427.760071374455</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>414.8190986285599</v>
+        <v>371.8730284726289</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>423.4960172564502</v>
+        <v>482.851312804719</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>537.0325992239135</v>
+        <v>594.8459679487269</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>557.3373067716399</v>
+        <v>519.8274784399126</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>639.2435873421949</v>
+        <v>463.8086865942558</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>602.4330213352422</v>
+        <v>389.9673873147169</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>640.2604881866005</v>
+        <v>463.1450560534216</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>240.5760702925128</v>
+        <v>419.3868520073839</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>664.113452833092</v>
+        <v>373.4689287605056</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>339.9454247982331</v>
+        <v>318.2955486524384</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>759.7112860759569</v>
+        <v>542.2768239474783</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>249.1516118215862</v>
+        <v>245.9954577860465</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>664.9967562433725</v>
+        <v>318.592385280157</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>666.4601840110673</v>
+        <v>258.092955920591</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>715.3353925225965</v>
+        <v>331.3381424730248</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>607.438209504195</v>
+        <v>526.8480135923738</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>679.9438799434395</v>
+        <v>608.6429007877896</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>254.0539343529169</v>
+        <v>525.858485556737</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>429.0824966768812</v>
+        <v>369.5517699773839</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>563.5119782085507</v>
+        <v>685.1796709072593</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>289.0649113373067</v>
+        <v>183.3046378867015</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>421.2066167469135</v>
+        <v>342.7796296863782</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>457.1402138946446</v>
+        <v>336.1695948119819</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>242.112016763219</v>
+        <v>537.9830580508627</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>664.2266488395844</v>
+        <v>292.9885231328292</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>219.7736691712331</v>
+        <v>402.697337517872</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>491.4806237412208</v>
+        <v>316.3223579994555</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>593.7438397698623</v>
+        <v>546.7357164903523</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>334.7409539496321</v>
+        <v>343.6775168578009</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>423.93367150161</v>
+        <v>299.1719449035031</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>648.8113253446971</v>
+        <v>541.9011887120693</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>491.2580597265594</v>
+        <v>644.8256605118958</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>484.5450005871898</v>
+        <v>449.2790584127026</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>391.310434466001</v>
+        <v>526.8939043303371</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>516.0990844150914</v>
+        <v>364.6443487720269</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>337.9704783133295</v>
+        <v>639.0220876263456</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>287.0238451683653</v>
+        <v>479.7184477028875</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>411.7642445338453</v>
+        <v>332.7878905647129</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>437.2774274736548</v>
+        <v>676.2655371523076</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>331.5297044321053</v>
+        <v>723.3325607696256</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>512.2305291024315</v>
+        <v>232.3550857545672</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>252.661154562633</v>
+        <v>391.1948302884066</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>371.9814004210196</v>
+        <v>517.9387463597593</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>506.1465765824974</v>
+        <v>210.7135811291983</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>570.1914695322635</v>
+        <v>478.9072336929692</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>316.2129815117618</v>
+        <v>659.0000684967069</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>505.0311244904416</v>
+        <v>643.0256505918813</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>436.3354518992961</v>
+        <v>665.2414934972479</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>219.5145431249886</v>
+        <v>337.3700488278156</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>373.0082169845076</v>
+        <v>706.8299448616699</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>703.1915256624653</v>
+        <v>384.2849500310505</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>650.8925555969846</v>
+        <v>595.3439574075013</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>444.6638400643737</v>
+        <v>446.1010832147042</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>673.2838488885984</v>
+        <v>351.0315370094698</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>257.9820674561906</v>
+        <v>401.3830389902317</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>251.21151359878</v>
+        <v>293.3846528060349</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>366.7648425430942</v>
+        <v>434.6371849313154</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>490.1798281071381</v>
+        <v>627.500617330924</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>506.0346400608815</v>
+        <v>426.8140697523591</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>209.6526002475107</v>
+        <v>487.1576431682834</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>487.8367316746812</v>
+        <v>216.1745969871963</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>714.6113032165365</v>
+        <v>392.7939805174815</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>227.6886046801981</v>
+        <v>585.4986328010959</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>465.2354892895078</v>
+        <v>425.3457123909324</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>383.4521464903369</v>
+        <v>282.8247770956469</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>588.899124261384</v>
+        <v>401.6383032848908</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>500.3615192362797</v>
+        <v>538.8253797176972</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>439.9707982731135</v>
+        <v>593.4770811126266</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>454.1621786078997</v>
+        <v>651.6512568300292</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>195.0891779834747</v>
+        <v>533.9423166885283</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>330.5118257321412</v>
+        <v>294.2126754203607</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>211.0296800131783</v>
+        <v>579.720241267369</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>182.8933335711608</v>
+        <v>220.7321560626847</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>593.4270276733489</v>
+        <v>403.7874755759285</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>301.5480365382076</v>
+        <v>560.52342434181</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>654.0526474325848</v>
+        <v>569.3980829274019</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>481.5940368077494</v>
+        <v>614.5687336563685</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>696.0607812792798</v>
+        <v>625.7322759364296</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>234.5912391496229</v>
+        <v>763.8688854918272</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>409.5842725201726</v>
+        <v>614.3568633733613</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>293.6352959766713</v>
+        <v>378.5103859525045</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>322.2131278980632</v>
+        <v>473.7666457103028</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>272.6421894074924</v>
+        <v>239.9856922613282</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>464.3561587368014</v>
+        <v>637.2881399967946</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>241.5236843564186</v>
+        <v>505.5089721482811</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>708.9075008178095</v>
+        <v>498.1635732438806</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>680.5769288376732</v>
+        <v>328.7721680644356</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>213.6956374423661</v>
+        <v>492.8033771429547</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>515.3991493966257</v>
+        <v>669.1847350581568</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>413.4044946725251</v>
+        <v>554.5590219901353</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>684.6788602465334</v>
+        <v>467.4866163788399</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>649.1745040995741</v>
+        <v>415.4691686656043</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>483.7468156220617</v>
+        <v>351.2276392302934</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>513.4985683235321</v>
+        <v>414.2325881401873</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>652.3688488149314</v>
+        <v>639.6982679410097</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>745.9390158149638</v>
+        <v>380.1381989914966</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>230.4318857865753</v>
+        <v>277.9783784269187</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>635.8068362028171</v>
+        <v>235.3985531631552</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>247.195167174111</v>
+        <v>467.5912678323355</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>523.7786389411049</v>
+        <v>665.3317929469985</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>619.0463797578749</v>
+        <v>311.2499718772044</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>351.6727934173653</v>
+        <v>564.5356269376028</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>597.6600308853029</v>
+        <v>402.683617922446</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>408.1561708620003</v>
+        <v>204.1394044550667</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>465.0172743396661</v>
+        <v>434.8024398672985</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>452.7467025213975</v>
+        <v>515.0155141009483</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>514.432985065309</v>
+        <v>312.2331085522977</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>227.4511353349179</v>
+        <v>648.1503704175644</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>338.3266233568616</v>
+        <v>597.0606766605772</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>484.3265945354688</v>
+        <v>553.2098016123136</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>212.5110702613302</v>
+        <v>624.6962449000506</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>535.1335029310549</v>
+        <v>388.3558134718117</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>414.3466315812811</v>
+        <v>637.8099745074608</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>468.4166938261785</v>
+        <v>442.2157505913547</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>507.6830074335471</v>
+        <v>704.8400484958538</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>692.951032042149</v>
+        <v>389.7310393296456</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>335.9003963923932</v>
+        <v>633.7026341672192</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>467.7091533445937</v>
+        <v>765.7106090022133</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>434.8586212718859</v>
+        <v>603.2423964402868</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>240.0367204941202</v>
+        <v>261.9032768718194</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>442.9301264789015</v>
+        <v>376.2369583981437</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>254.8426744321174</v>
+        <v>360.3418027828383</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>265.9075760341231</v>
+        <v>592.7744511807688</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>259.7728656063372</v>
+        <v>323.7757699943709</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>327.7429360317489</v>
+        <v>747.3200184964094</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>518.1934027223327</v>
+        <v>420.8425892808528</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>571.3120520738902</v>
+        <v>536.9797591184789</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>289.3249601820573</v>
+        <v>471.7297246726068</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>258.1404757174119</v>
+        <v>601.5965676684292</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>657.6442184554669</v>
+        <v>368.9879777917579</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>599.5561437829988</v>
+        <v>252.9787343663876</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>234.0393194126671</v>
+        <v>485.005879984124</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>459.1757854814777</v>
+        <v>500.9900224774112</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>525.0496832356238</v>
+        <v>187.2522094807764</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>283.3797738660082</v>
+        <v>327.4496336002582</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>290.1716056179358</v>
+        <v>172.4819669420999</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>227.1123016646374</v>
+        <v>330.2173378519485</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>517.4738075452774</v>
+        <v>604.4044189947836</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>300.844201086453</v>
+        <v>604.2659344793242</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>606.970139843374</v>
+        <v>419.652807419111</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>341.6046712712659</v>
+        <v>617.9572007127216</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>586.0830687004732</v>
+        <v>584.2260734834128</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>629.9099914465958</v>
+        <v>487.9945273677262</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>633.1105665632444</v>
+        <v>529.8376786972872</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>357.8522363153598</v>
+        <v>605.3482091994397</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>572.0144696138988</v>
+        <v>406.7155491542533</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>401.8161737894922</v>
+        <v>673.9840116851008</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>459.6482322804971</v>
+        <v>514.2833680477629</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>331.3717619600706</v>
+        <v>711.8129374132905</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>318.3028596014086</v>
+        <v>461.2460412149038</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>419.8098946891487</v>
+        <v>566.734990651835</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>455.5058082879416</v>
+        <v>200.4398842740561</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>516.3220848499362</v>
+        <v>500.1160379741443</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>603.4780822608529</v>
+        <v>517.4925422986321</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>529.7128321602065</v>
+        <v>586.3788927554687</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>311.0436211345898</v>
+        <v>511.9059832058261</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>527.5503874563655</v>
+        <v>589.6070431019326</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>628.1494655325499</v>
+        <v>304.357727413519</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>636.4473203248347</v>
+        <v>606.224704299624</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>398.960082040151</v>
+        <v>517.3846771085706</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>361.230329332195</v>
+        <v>498.6713602789036</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>464.6469013443293</v>
+        <v>259.5295610465178</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>168.5143519384997</v>
+        <v>473.4727036374935</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>271.550059052101</v>
+        <v>365.8185008171819</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>677.6904635097707</v>
+        <v>269.3800167786936</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>488.3796997585845</v>
+        <v>300.5646867517624</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>530.534203916453</v>
+        <v>382.7398482938513</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>274.0344271792291</v>
+        <v>580.6128805826753</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>518.1145257898463</v>
+        <v>567.9938950578555</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>345.3561713425116</v>
+        <v>757.6924269200433</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>596.1720538814835</v>
+        <v>714.0190399121666</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>261.349121587793</v>
+        <v>527.9741997012954</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>424.3511669852894</v>
+        <v>564.3858380801646</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>374.2644891950237</v>
+        <v>383.41642970908</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>430.6203177748586</v>
+        <v>317.3085371154608</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>657.645691347219</v>
+        <v>293.5505145269709</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>543.2032698012545</v>
+        <v>623.2636824859406</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>424.422391087904</v>
+        <v>341.7401091237449</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>409.9498754416591</v>
+        <v>615.8756175687421</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>515.7109118584099</v>
+        <v>414.9499374215552</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>340.1963259048637</v>
+        <v>463.6160837373713</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>563.3163307685504</v>
+        <v>475.0345837337614</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>278.4245182385507</v>
+        <v>352.2519414360831</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>467.9873463362924</v>
+        <v>412.4226028790783</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>639.3543874814399</v>
+        <v>669.8087922300159</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>550.6390443016412</v>
+        <v>236.3317543618812</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>699.9133338614233</v>
+        <v>539.6430408506131</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>242.7759653893704</v>
+        <v>247.0730694776119</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>439.2874044063828</v>
+        <v>352.8166414878197</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>328.6936496711733</v>
+        <v>348.8598845158717</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>574.9335527262467</v>
+        <v>372.8487604931597</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>184.7390738049262</v>
+        <v>232.4178308903382</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>505.6386734485252</v>
+        <v>552.3051960623534</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>130.5378959770309</v>
+        <v>365.8467679916053</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>547.3119162808184</v>
+        <v>558.2930776794318</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>510.6856380973757</v>
+        <v>410.7661665236574</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>616.9849133633687</v>
+        <v>650.9978588081439</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>507.1896978200907</v>
+        <v>572.2781872357245</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>556.3202590207106</v>
+        <v>303.8931353011097</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>723.1944960830693</v>
+        <v>569.7504126060741</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>225.5585394246752</v>
+        <v>630.0817058359069</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>323.7261005048515</v>
+        <v>606.1102652769179</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>460.2163808792209</v>
+        <v>488.4482298687459</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>459.6458030347596</v>
+        <v>552.3628520360227</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>369.5889653903706</v>
+        <v>685.0405470738129</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>488.886872475553</v>
+        <v>518.2871283281165</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>501.5163524461043</v>
+        <v>579.3377069311859</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>514.2013513237343</v>
+        <v>474.2082761640646</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>562.8723763225908</v>
+        <v>691.7681372233674</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>353.4242007965474</v>
+        <v>373.5093198417737</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>427.1972354734851</v>
+        <v>335.9057935872429</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>474.4988266818302</v>
+        <v>506.1251721214081</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>405.9112666083915</v>
+        <v>369.3112940999135</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>460.6593406583836</v>
+        <v>511.9098880027863</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>565.5235941236389</v>
+        <v>479.5498133634179</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>648.5443048918002</v>
+        <v>532.3839182116992</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>189.5867571953642</v>
+        <v>603.0662667250623</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>598.785700344081</v>
+        <v>354.8694206312118</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>289.5499982813254</v>
+        <v>403.8722292012711</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>372.0997836386521</v>
+        <v>427.468592469291</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>502.3279490801427</v>
+        <v>502.3332839745842</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>317.9044840100825</v>
+        <v>317.2920051669136</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>548.2528700544881</v>
+        <v>411.9161945366662</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>589.8698301727823</v>
+        <v>465.0760522894345</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>568.0609603017863</v>
+        <v>223.1968542543808</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>615.5477323547128</v>
+        <v>648.3918758929192</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>324.447296819705</v>
+        <v>631.0841038865728</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>535.3664907227778</v>
+        <v>478.4700960526732</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>272.7999186924064</v>
+        <v>546.4782133528195</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>687.6591966289113</v>
+        <v>575.7711651822076</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>381.9508463937483</v>
+        <v>729.3624054749183</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>682.0202329201769</v>
+        <v>538.5491906038662</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>583.1683657694986</v>
+        <v>686.6017821076175</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>457.0979588158081</v>
+        <v>520.442688055886</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>397.334340333275</v>
+        <v>689.9130859493121</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>610.6851705975838</v>
+        <v>520.1786423799288</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>281.7477008166466</v>
+        <v>672.9236987803705</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>252.6233831781063</v>
+        <v>417.5950216850385</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>471.772965704214</v>
+        <v>488.2323892600588</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>476.6640317593246</v>
+        <v>445.9159170848827</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>470.2556305496979</v>
+        <v>531.7459204578137</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>388.1140375876609</v>
+        <v>276.0685359536617</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>281.0057114571656</v>
+        <v>358.1082942508307</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>474.0607411265259</v>
+        <v>557.9733288242167</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>509.7297700932299</v>
+        <v>470.6771620200218</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>608.1570776451524</v>
+        <v>613.1432422590184</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>310.4705272554212</v>
+        <v>532.1634380230379</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>712.105355867711</v>
+        <v>203.9530352450148</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>442.0708761105994</v>
+        <v>449.923956294109</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>520.4623845254364</v>
+        <v>446.3172956014622</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>320.0013799576756</v>
+        <v>215.4942373542885</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>377.1346464449024</v>
+        <v>671.3167355007845</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>630.2440293420847</v>
+        <v>437.9682133379101</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>549.063008986422</v>
+        <v>662.4366005910537</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>607.0920227906878</v>
+        <v>542.2628287133354</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>380.0588514578748</v>
+        <v>674.6935013472909</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>674.9555889806459</v>
+        <v>436.2192573210876</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>627.792768866863</v>
+        <v>608.1267918182622</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>506.9897631495281</v>
+        <v>389.0162857499367</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>348.1995713049415</v>
+        <v>359.2062744940774</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>280.2729859910461</v>
+        <v>435.0160507037684</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>525.5177172077262</v>
+        <v>432.2507733228239</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>514.9546883585269</v>
+        <v>396.833087916689</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>396.9109844828784</v>
+        <v>341.2182264518401</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>606.6733379438574</v>
+        <v>635.3369416220314</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>563.9671177264911</v>
+        <v>258.2225083044548</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>503.4285174875193</v>
+        <v>259.8634365741603</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>654.1095528352503</v>
+        <v>342.5666132510599</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>567.7302855485822</v>
+        <v>687.8428340102671</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>301.4459719315901</v>
+        <v>435.0469512042551</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>318.1658580686776</v>
+        <v>530.3854203048742</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>167.6752561536753</v>
+        <v>571.7706755409777</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>121.8505361662895</v>
+        <v>718.2263855241764</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>485.1301962168509</v>
+        <v>616.1877691716014</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>407.2605446130691</v>
+        <v>679.2241544045399</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>322.1714883788928</v>
+        <v>298.4542583237002</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>349.5202711167364</v>
+        <v>411.2809669633504</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>304.3575069681809</v>
+        <v>567.4235279581713</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>589.7309213653925</v>
+        <v>531.9204557905113</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>511.6898055841666</v>
+        <v>541.857128984291</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>399.9002504207044</v>
+        <v>650.0648805270852</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>542.4647736011545</v>
+        <v>679.5063803548708</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>686.4371892757504</v>
+        <v>328.4479907540129</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>597.9121662664725</v>
+        <v>454.3702525782262</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>694.6031433075864</v>
+        <v>497.3496578925511</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>327.751837827349</v>
+        <v>433.8944632467854</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>387.5373921831912</v>
+        <v>578.5831715137624</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>678.0134384637483</v>
+        <v>411.1816255624312</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>468.4690226517758</v>
+        <v>583.7928618877918</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>559.8257371339737</v>
+        <v>624.4468783216552</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>329.2274124817829</v>
+        <v>470.8626617929666</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>698.7832152647737</v>
+        <v>377.9603743586422</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>669.8538392956361</v>
+        <v>412.2539950613302</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>413.7181490838591</v>
+        <v>308.7288781614541</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>444.3761311374466</v>
+        <v>494.7411723659261</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>304.5973806762959</v>
+        <v>694.1782093479629</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>307.8165255801714</v>
+        <v>359.9205064536338</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>531.7162563764916</v>
+        <v>569.6912307077537</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>582.5425777835803</v>
+        <v>690.4990300801592</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>665.2149981674369</v>
+        <v>549.343623192683</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>342.8989785591212</v>
+        <v>178.9499424971297</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>295.1063176915415</v>
+        <v>343.0225515842694</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>493.7723435075308</v>
+        <v>286.9980385412148</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>282.5181805850073</v>
+        <v>385.0293622356135</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>709.765042201777</v>
+        <v>776.3612360529854</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>581.6336602265749</v>
+        <v>735.2353055715121</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>345.1716094209137</v>
+        <v>514.7368456354342</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>289.9338828319903</v>
+        <v>638.2845164109533</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>275.3158953142881</v>
+        <v>570.7877404849663</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>386.3355026328052</v>
+        <v>676.0397384933515</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>498.2190153616939</v>
+        <v>402.5294572859842</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>248.9251146833406</v>
+        <v>501.6873962908917</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>337.2008460507915</v>
+        <v>247.5601822070998</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>297.9110032246851</v>
+        <v>663.334021205862</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>278.8577916648494</v>
+        <v>335.448793616364</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>400.6863782690764</v>
+        <v>479.1045083599066</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>628.5193394960326</v>
+        <v>439.3527571373828</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>716.8496049910739</v>
+        <v>498.7157100547471</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>628.2333203069684</v>
+        <v>339.2220568155277</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>433.190244641453</v>
+        <v>526.5837554010843</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>598.5906729484717</v>
+        <v>658.8062717717967</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>377.3221462058987</v>
+        <v>396.9879387076533</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>523.1233753413698</v>
+        <v>470.2643740366023</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>375.5192256267342</v>
+        <v>557.4623527590694</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>532.0013807418397</v>
+        <v>569.9621081972782</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>267.4611344208558</v>
+        <v>408.5073754422289</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>645.3629273671924</v>
+        <v>272.2252940481605</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>461.2872595563884</v>
+        <v>216.4521705083306</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>611.5541304366724</v>
+        <v>540.2585708385155</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>500.4263004167317</v>
+        <v>598.9243582815933</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>336.307527504181</v>
+        <v>596.1996497477128</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>739.4039435309916</v>
+        <v>429.8989478816595</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>251.4589823132347</v>
+        <v>485.9760948010551</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>574.6299527702178</v>
+        <v>586.0378952483845</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>551.8646650181133</v>
+        <v>736.91552349086</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>649.8905301880128</v>
+        <v>399.6235409816717</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>561.0737273278352</v>
+        <v>572.6641099020945</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>404.696935648638</v>
+        <v>481.4492546994124</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>742.3653906074161</v>
+        <v>452.7472052461525</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>361.592431757165</v>
+        <v>465.9271153577993</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>367.6486758279265</v>
+        <v>705.4664559138241</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>720.3991402483629</v>
+        <v>379.3295831550153</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>544.2781137352899</v>
+        <v>555.9455619139087</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>612.9602910064688</v>
+        <v>432.2166751214885</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>515.2499875139722</v>
+        <v>310.966699414935</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>423.1882486826834</v>
+        <v>501.1281158652867</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>665.7581243916493</v>
+        <v>722.1168027010891</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>462.298005271978</v>
+        <v>631.9784709607319</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>423.4736622904184</v>
+        <v>453.1663648324609</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>583.1290146654499</v>
+        <v>541.1322231692867</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>380.0610969885203</v>
+        <v>265.1109296395427</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>648.4828517142797</v>
+        <v>442.7652516673193</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>217.5133584839477</v>
+        <v>549.7894832013558</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>614.2521963244429</v>
+        <v>336.8372728131793</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>517.4750315103853</v>
+        <v>532.9283668070457</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>307.4161292545379</v>
+        <v>694.9476969150844</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>553.0948776634124</v>
+        <v>318.1347879786038</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>374.2697220375122</v>
+        <v>296.2992770263746</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>292.9622656359767</v>
+        <v>617.1872450987802</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>248.3181268137363</v>
+        <v>397.3981063425416</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>581.7178118311375</v>
+        <v>437.6541281543329</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>358.8989048448031</v>
+        <v>248.0226124947739</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>352.6208272294334</v>
+        <v>612.8104074440615</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>322.9558189004807</v>
+        <v>294.5822094496279</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>212.441878921191</v>
+        <v>442.6420989960687</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>467.2285040045765</v>
+        <v>379.9993432912104</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>650.156904578847</v>
+        <v>292.1188202178298</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>593.3258980291846</v>
+        <v>486.0044795234783</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>518.5060184472497</v>
+        <v>296.0858942356641</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>333.1849912848525</v>
+        <v>335.234007533715</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>500.7981052808773</v>
+        <v>399.3947502934649</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>598.552436071662</v>
+        <v>543.3544012502529</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>442.7995707366485</v>
+        <v>548.5185659896864</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>394.244304657654</v>
+        <v>545.9743131162494</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>504.0623690500961</v>
+        <v>610.5453851696728</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>342.9705209169541</v>
+        <v>497.0916398217731</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>702.9406438781804</v>
+        <v>285.2119799202123</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>658.4533759431197</v>
+        <v>215.007121166967</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>578.4211919930538</v>
+        <v>493.0074040986374</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>500.2909037981416</v>
+        <v>623.8860716493077</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>703.2990706087911</v>
+        <v>635.2172165497991</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>262.4770321283095</v>
+        <v>499.3221616012518</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>371.955635126422</v>
+        <v>566.2402548174978</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>305.1125051612751</v>
+        <v>340.2042504147448</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>269.9490320539953</v>
+        <v>546.5970214351178</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>231.2479944593933</v>
+        <v>414.1993007834468</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>470.9778056921846</v>
+        <v>327.7818494857986</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>554.3548736522152</v>
+        <v>173.6543203073558</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>587.0933322924478</v>
+        <v>519.6331849017777</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>233.5674723300953</v>
+        <v>228.4983436252126</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>591.0570270123964</v>
+        <v>310.5256123447731</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>634.0719654749724</v>
+        <v>450.9000122048165</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>689.2423046263918</v>
+        <v>534.0159025656594</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>568.1139238759118</v>
+        <v>553.0282573398739</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>588.700718740721</v>
+        <v>587.553382011658</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>567.156135681231</v>
+        <v>418.7121429825291</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>532.7502265308259</v>
+        <v>313.6618686965975</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>410.1394858989619</v>
+        <v>392.6316795904881</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>297.9256415801485</v>
+        <v>435.1195964209361</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>180.7271927888915</v>
+        <v>329.9999082053183</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>566.1158330690216</v>
+        <v>499.5537840651252</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>518.667655207989</v>
+        <v>768.0263900910213</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>723.2919721876608</v>
+        <v>446.7584319405253</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>610.8355328313986</v>
+        <v>224.1652541633599</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>626.7299024496542</v>
+        <v>318.4152268142419</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>564.1743034757703</v>
+        <v>284.2998684343543</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>520.1497186983208</v>
+        <v>263.2586853614844</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>551.1565770953348</v>
+        <v>223.5574883221869</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>196.3052232869769</v>
+        <v>456.5384066057055</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>339.392065462681</v>
+        <v>292.6337670578477</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>414.9335953155747</v>
+        <v>523.7066341046165</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>398.8933207366479</v>
+        <v>339.1420737733321</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>349.6576639552604</v>
+        <v>366.4024416022381</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>429.7657602392975</v>
+        <v>419.0235488862748</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>673.1380462048692</v>
+        <v>619.0826265335673</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>572.8019586408957</v>
+        <v>526.489147783057</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>297.1653290723128</v>
+        <v>475.156597062588</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>525.9608051428912</v>
+        <v>494.0997756401928</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>637.8730885505565</v>
+        <v>420.3244903405725</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>491.0537527493348</v>
+        <v>537.0227308470868</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>401.3890544053261</v>
+        <v>726.1442329582027</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>413.0832042269798</v>
+        <v>588.8840607441283</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>480.7187393405294</v>
+        <v>253.946327130428</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>494.5859610132342</v>
+        <v>423.8321910756724</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>463.3647873607903</v>
+        <v>378.2421773912548</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>347.6200775640524</v>
+        <v>662.9161538365495</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>543.4776280379098</v>
+        <v>525.8274023027506</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>601.5907598023231</v>
+        <v>449.7648099656381</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>351.4471813750662</v>
+        <v>318.2546379750244</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>230.8631008761099</v>
+        <v>576.4144741297993</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>612.1011135003993</v>
+        <v>360.2352520971737</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>473.3870321938066</v>
+        <v>606.1726258675758</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>656.9594662515966</v>
+        <v>155.1052176103615</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>500.8104198557673</v>
+        <v>499.6970271740086</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>626.4719023713383</v>
+        <v>425.2159609092599</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>451.2148338380745</v>
+        <v>708.0025812858411</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>573.8241256083548</v>
+        <v>711.7450095669635</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>250.040671472368</v>
+        <v>654.3123441655764</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>531.8443241689113</v>
+        <v>624.4095292589471</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>454.1251367787651</v>
+        <v>595.9651064840376</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>294.4620708499994</v>
+        <v>308.4069498376473</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>613.6472922325497</v>
+        <v>662.1602365607275</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>414.2406699555369</v>
+        <v>626.140764309982</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>260.8986265673151</v>
+        <v>476.8437485800652</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>410.6304035851731</v>
+        <v>281.6145653587034</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>519.5291089295176</v>
+        <v>571.6186404764818</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>409.5976916104527</v>
+        <v>479.2393704249107</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>635.3659361153424</v>
+        <v>650.8856085262393</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>422.7251810754924</v>
+        <v>473.13468577812</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>405.8590371116425</v>
+        <v>217.102557199761</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>484.3097995346378</v>
+        <v>512.3994902467927</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>508.5946695732303</v>
+        <v>554.2055911660744</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>477.4347756566278</v>
+        <v>525.1213044929592</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>162.1117272988789</v>
+        <v>721.2980194967638</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>419.9350661588269</v>
+        <v>436.6882397379509</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>560.856809372063</v>
+        <v>415.9391182730167</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>408.8234251905789</v>
+        <v>309.7062249714286</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>402.2001990856951</v>
+        <v>359.4399020651952</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>357.7462388781236</v>
+        <v>625.4561229574746</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>535.4592419925403</v>
+        <v>374.8460523831735</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>646.1406668463601</v>
+        <v>576.8707891734805</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>407.7772022938867</v>
+        <v>707.8606184551106</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>326.2992151872179</v>
+        <v>377.8966668097564</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>568.9527658544366</v>
+        <v>362.8927288893014</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>602.3079440898942</v>
+        <v>429.2758333147424</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>189.730183191542</v>
+        <v>546.2260364622134</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>367.6392702674931</v>
+        <v>537.8006121814485</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>539.1407877066808</v>
+        <v>274.332922451931</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>637.3714159104904</v>
+        <v>334.3874078182002</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>296.056596726383</v>
+        <v>372.787805127111</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>592.691168963322</v>
+        <v>387.046509750402</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>343.9374058518158</v>
+        <v>665.0653638536621</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>703.0138315841914</v>
+        <v>336.5790751184234</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>621.1867490242132</v>
+        <v>388.9325399540618</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>686.200925982458</v>
+        <v>391.4878433846009</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>638.9882175500373</v>
+        <v>578.4215537114126</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>654.279165955685</v>
+        <v>437.6162620932365</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>545.5683898697984</v>
+        <v>615.9492353012198</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>366.447673285812</v>
+        <v>353.4444799114259</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>357.298802783261</v>
+        <v>632.785300372666</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>91.30951117500757</v>
+        <v>425.2855833638708</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>493.1331895563164</v>
+        <v>709.0036987110108</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>302.7023006746389</v>
+        <v>390.8212426053337</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>291.5707933064181</v>
+        <v>377.8408415874368</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>602.0364541846092</v>
+        <v>143.1760140129394</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>280.3297013995181</v>
+        <v>663.8142794773577</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>614.1427928577889</v>
+        <v>539.5588576560657</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>351.061242637113</v>
+        <v>504.2863334268035</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>693.0321735920219</v>
+        <v>378.7984078496776</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>455.8392642469155</v>
+        <v>441.7340705629375</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>677.4335673162396</v>
+        <v>625.1916558626409</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>354.7947567685352</v>
+        <v>561.7027441670331</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>525.5579117050648</v>
+        <v>517.43609642648</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>626.4453172636332</v>
+        <v>464.9515028411935</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>370.0365506618974</v>
+        <v>433.3222262559288</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>315.9934186762993</v>
+        <v>558.5979322958423</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>410.0875986501079</v>
+        <v>197.0667466213134</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>410.4861123752386</v>
+        <v>352.2438899947463</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>357.7685786043018</v>
+        <v>702.5354897885654</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>494.4320929982862</v>
+        <v>327.540199050942</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>156.9188266870424</v>
+        <v>442.1080131402327</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>458.6605599395385</v>
+        <v>375.0494914515991</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>340.3183738215979</v>
+        <v>519.8647099280248</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>567.0859746852168</v>
+        <v>641.64792508501</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>301.8146559479595</v>
+        <v>345.02204873392</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>290.7126955152137</v>
+        <v>413.1479648004778</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>595.4297141595057</v>
+        <v>535.3243867828523</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>418.3168954271289</v>
+        <v>339.0818275405957</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>470.6417351669842</v>
+        <v>639.5430380269046</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>669.2660094996186</v>
+        <v>240.6733110435929</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>479.9802339551174</v>
+        <v>369.1700571166589</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>370.7881129978161</v>
+        <v>376.000588989782</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>427.5911643630024</v>
+        <v>444.7622256045136</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>632.9436220943434</v>
+        <v>508.505300246198</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>691.4304619153643</v>
+        <v>390.2968424251401</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>578.5408901964488</v>
+        <v>634.2209926424347</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>248.4840191972188</v>
+        <v>240.6182928077083</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>501.2565157502639</v>
+        <v>233.8545873142339</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>586.7755878825243</v>
+        <v>256.5024732135305</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>204.6564930281261</v>
+        <v>733.3026698299548</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>626.1407326536713</v>
+        <v>606.635220988825</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>365.3230927474743</v>
+        <v>246.1112371098379</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>518.063807368384</v>
+        <v>590.0571256932882</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>681.300332300386</v>
+        <v>545.4830158993102</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>340.6124412844088</v>
+        <v>319.297760349822</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>519.949572869431</v>
+        <v>410.6814843873386</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>195.2619954111226</v>
+        <v>476.7616472274883</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>641.4253545130492</v>
+        <v>585.8725748674391</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>592.0242014393734</v>
+        <v>705.4355535471257</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>435.5745232385452</v>
+        <v>315.2209571668844</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>678.9600073031074</v>
+        <v>525.3885524640635</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>425.7903373652097</v>
+        <v>575.5889295437142</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>627.6029178482153</v>
+        <v>648.8308798566504</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>413.5824145402257</v>
+        <v>658.0019469076913</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>460.7696076534683</v>
+        <v>514.3489607775132</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>565.7145715525926</v>
+        <v>563.3670633842059</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>242.8640888310054</v>
+        <v>584.8025790082266</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>311.6011026407533</v>
+        <v>651.3887632167412</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>593.888648735876</v>
+        <v>461.230771627866</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>484.7257986884379</v>
+        <v>777.1370834758683</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>250.8568163179807</v>
+        <v>254.1177183696182</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>613.5568342069503</v>
+        <v>434.4550111288906</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>590.8010974770964</v>
+        <v>393.8833108563206</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>294.9863084418261</v>
+        <v>494.0965798885092</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>628.6191758607408</v>
+        <v>606.2613417116049</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>598.7543068631584</v>
+        <v>510.6809707311022</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>410.2890525843064</v>
+        <v>713.111354647609</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>415.3696662677976</v>
+        <v>657.4077866839348</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>571.2415086075933</v>
+        <v>623.6751178910882</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>491.3109319092218</v>
+        <v>512.2111366854072</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>700.0859309211644</v>
+        <v>524.3596118354293</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>402.0757717852514</v>
+        <v>632.4096742474968</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>709.5334305489174</v>
+        <v>476.2370994237318</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>405.5893684746568</v>
+        <v>650.7761804630674</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>581.3221858157516</v>
+        <v>434.0490386991539</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>426.2567814323081</v>
+        <v>444.5554649437606</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>290.9273081608071</v>
+        <v>522.9337397492523</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>274.0054380865412</v>
+        <v>532.0543712173289</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>612.7054490479726</v>
+        <v>543.8831805708071</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>552.2665485265683</v>
+        <v>581.3360680868354</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>596.6331039666214</v>
+        <v>416.496881071543</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>404.9148145316086</v>
+        <v>296.9990045300468</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>280.1909378838089</v>
+        <v>385.3247110913391</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>246.639975956098</v>
+        <v>553.5645426220876</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>357.0123564589799</v>
+        <v>249.0408901804222</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>510.7885981235785</v>
+        <v>646.3606826610085</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>513.8059793020725</v>
+        <v>672.1971232299437</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>581.9464860894176</v>
+        <v>626.73544516262</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>657.9928311296517</v>
+        <v>374.2226574388317</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>366.0990238071472</v>
+        <v>397.9865645758893</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>336.3091843069488</v>
+        <v>427.6936633672498</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>510.2007688314631</v>
+        <v>612.7102137953675</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>454.2400073270822</v>
+        <v>328.4815766740628</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>430.264836075911</v>
+        <v>605.4586477446232</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>372.7083634609293</v>
+        <v>306.1392959818911</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>650.1773306947262</v>
+        <v>234.7267287149435</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>593.1916481905241</v>
+        <v>629.198475553231</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>603.9675452190423</v>
+        <v>343.547138740919</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>366.6566135370932</v>
+        <v>509.3591087385117</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>612.4367351732973</v>
+        <v>575.0459382064215</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>488.1430089033459</v>
+        <v>641.0037971922047</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>693.6156189840998</v>
+        <v>428.3459019267857</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>147.6658315088825</v>
+        <v>239.3879545108368</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>512.070374840688</v>
+        <v>249.6152734394732</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>285.2218172767447</v>
+        <v>363.1448551980725</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>301.3410530006037</v>
+        <v>453.6478015243173</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>393.6219040082406</v>
+        <v>518.3845010704451</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>568.2287199687386</v>
+        <v>615.038850585398</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>653.7910828099991</v>
+        <v>496.2976547016304</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>218.9678901825256</v>
+        <v>592.2735282953565</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>394.0089349184125</v>
+        <v>697.7773980832014</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>615.836772967324</v>
+        <v>527.0860379408925</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>459.1245509764939</v>
+        <v>607.430194111239</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>421.2998503092488</v>
+        <v>735.7775520134618</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>398.0122568216324</v>
+        <v>323.3089377190942</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>199.5413137268197</v>
+        <v>485.9673897530242</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>572.177441639417</v>
+        <v>435.0660023637615</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>300.1447533707863</v>
+        <v>259.0775079524507</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>669.6333896616351</v>
+        <v>407.407995129681</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>518.679195197603</v>
+        <v>528.6737335601746</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>271.3040063131175</v>
+        <v>305.7125090859753</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>466.4711448421718</v>
+        <v>406.8296486028702</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>626.8701870007768</v>
+        <v>715.9713083767175</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>710.64523752226</v>
+        <v>335.6937690666672</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>615.6483206425934</v>
+        <v>507.0725115043949</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>599.924893412482</v>
+        <v>456.6862467197521</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>297.8489789686857</v>
+        <v>684.8546447739778</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>246.8408540381629</v>
+        <v>545.0864826432888</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>623.2047746215748</v>
+        <v>480.4236446811458</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>566.1609118994154</v>
+        <v>354.4169971729824</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>473.3989873823731</v>
+        <v>528.3176478433761</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>529.8316742467323</v>
+        <v>192.5511128612359</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>565.4398732587736</v>
+        <v>569.4369495274865</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>304.3473482420356</v>
+        <v>612.985903362267</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>266.9152353289996</v>
+        <v>553.3188703779214</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>477.7070627243369</v>
+        <v>256.9420478565286</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>415.7091238740928</v>
+        <v>513.7647963366577</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>172.6738664643565</v>
+        <v>389.5653692386519</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>784.6822618124548</v>
+        <v>519.5695337052592</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>633.2708034785619</v>
+        <v>295.6924906380673</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>609.3489333792203</v>
+        <v>651.8436631071969</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>373.3082465124467</v>
+        <v>607.7735651843911</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>321.1908374557308</v>
+        <v>167.6420154214547</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>378.8327989580725</v>
+        <v>519.6067287964144</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>421.8558590102483</v>
+        <v>548.9037274081395</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>620.5224480798923</v>
+        <v>344.6431108422106</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>330.2245421364763</v>
+        <v>240.9295451298131</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>644.3856573450745</v>
+        <v>594.518294575131</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>445.1328051453299</v>
+        <v>220.1566776386782</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>634.7127232753339</v>
+        <v>586.8802520459244</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>643.7983478563468</v>
+        <v>584.8510376927396</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>532.940455084687</v>
+        <v>698.4372389246155</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>513.3720585863018</v>
+        <v>705.724935771019</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>468.6798921688793</v>
+        <v>218.3387351287666</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>477.584732916141</v>
+        <v>433.1732763456646</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>234.7921373743395</v>
+        <v>561.2219259010006</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>532.8567584015686</v>
+        <v>521.5165473202468</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>552.9792084993633</v>
+        <v>495.5194674664805</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>462.4722574134027</v>
+        <v>499.6135316484722</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>381.8251591767567</v>
+        <v>650.6090389289247</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>388.9539677119043</v>
+        <v>391.2432498488186</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>310.2038150553961</v>
+        <v>447.4299688655469</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>532.3674926367639</v>
+        <v>621.3456021036083</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>641.6738303692892</v>
+        <v>455.0811976724858</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>315.9796652904679</v>
+        <v>245.0555678015884</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>312.1557965247783</v>
+        <v>541.7503320511607</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>431.0796908684366</v>
+        <v>360.1711509092458</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>624.5207413162246</v>
+        <v>619.5967909373572</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>268.4845499099926</v>
+        <v>459.3638036079711</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>491.0170859032837</v>
+        <v>711.3848444226315</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>734.8808268781934</v>
+        <v>431.743145374338</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>378.4307278925623</v>
+        <v>598.9070518515689</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>589.8484928113265</v>
+        <v>313.104970292553</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>365.6565446401706</v>
+        <v>590.9254037511731</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>477.6805327598523</v>
+        <v>291.8316568740671</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>590.4434147655185</v>
+        <v>333.6406746311266</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>416.8960729099561</v>
+        <v>283.6959917581162</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>686.3692778151791</v>
+        <v>459.8487258951042</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>533.7261782118165</v>
+        <v>457.3799878400615</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>616.2839495206927</v>
+        <v>378.3725195235077</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>628.8284553803981</v>
+        <v>627.4178908097372</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>359.1357916941442</v>
+        <v>432.9943363123392</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>276.0404120657668</v>
+        <v>255.7169363542205</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>414.995123217478</v>
+        <v>467.8574160130068</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>594.1103307404162</v>
+        <v>258.8553816535401</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>286.8236172175581</v>
+        <v>532.8160619655922</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>461.8838461344299</v>
+        <v>440.7507985766129</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>603.2065917406385</v>
+        <v>572.6524450536215</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>569.5666724839872</v>
+        <v>322.0200780235112</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>344.8360134448845</v>
+        <v>387.5766706626478</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>544.6933028787938</v>
+        <v>541.9319579209877</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>382.4294559529587</v>
+        <v>367.6316795150885</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>516.3580866584078</v>
+        <v>448.1708964960338</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>562.4443288791576</v>
+        <v>410.9779314173209</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>311.3001035162207</v>
+        <v>541.4965626354814</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>699.7825989684574</v>
+        <v>596.01694822642</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>745.6012400523639</v>
+        <v>306.8828436922654</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>503.1745854183273</v>
+        <v>378.7498897240936</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>669.1709593488331</v>
+        <v>321.60764745151</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>293.2935522456608</v>
+        <v>322.7575778684579</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>558.1474246275902</v>
+        <v>562.9950562176393</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>325.9804929575365</v>
+        <v>501.9553976951673</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>256.3886800617918</v>
+        <v>570.8693026360502</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>613.9015920469794</v>
+        <v>213.586474967399</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>337.9976833981228</v>
+        <v>464.3102631666896</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>414.8516429119925</v>
+        <v>469.0359248410374</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>503.5309703272981</v>
+        <v>546.2187993354518</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>396.5662703667302</v>
+        <v>315.743515451004</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>293.3894685615778</v>
+        <v>422.7125920533797</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>522.0223029326448</v>
+        <v>288.0461314184847</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>227.7824163762316</v>
+        <v>293.2343807973912</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>756.65427702231</v>
+        <v>467.1830268063476</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>407.2111049459973</v>
+        <v>529.4006736127177</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>262.8809221768017</v>
+        <v>588.090463445943</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>303.4237349238229</v>
+        <v>485.6170938205369</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>388.6881975242143</v>
+        <v>514.1001674245729</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>268.0404715550219</v>
+        <v>460.7307226024868</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>511.9233952675165</v>
+        <v>563.9366124062958</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>529.5729220933246</v>
+        <v>554.4563822726734</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>707.3043022902315</v>
+        <v>524.8827392624481</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>410.7098904339047</v>
+        <v>601.4120729948751</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>346.0238309342754</v>
+        <v>357.7010318100941</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>456.4980023746925</v>
+        <v>598.0046245971722</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>621.5516614846455</v>
+        <v>688.4300241824013</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>480.839479439288</v>
+        <v>691.805472681851</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>590.2076852280701</v>
+        <v>409.6587600629462</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>616.4163633910592</v>
+        <v>640.2316173745539</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>654.5237229143797</v>
+        <v>286.5398560366547</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>392.8781931766138</v>
+        <v>653.6878376263674</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>279.4900857512894</v>
+        <v>329.8575520941058</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>691.9391896021617</v>
+        <v>572.5257229991204</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>376.7523568104454</v>
+        <v>623.4690625650254</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>808.5017716282264</v>
+        <v>401.209731909586</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>741.0878293202012</v>
+        <v>461.4745230720522</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>210.6912420620934</v>
+        <v>582.5776003950275</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>410.6241567021818</v>
+        <v>615.4487762245608</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>253.889879188651</v>
+        <v>438.287736677879</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>422.9507628134116</v>
+        <v>592.8206781197329</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>593.0814888249585</v>
+        <v>583.942528111217</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>206.5842250916608</v>
+        <v>266.2542649016374</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>400.2879571471778</v>
+        <v>683.5592211062719</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>390.4083757326324</v>
+        <v>418.9220761454548</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>465.0857724681481</v>
+        <v>368.7687003641969</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>422.1636226979144</v>
+        <v>706.3401943671228</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>198.4881404485865</v>
+        <v>208.5222968859609</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>517.5310558640413</v>
+        <v>452.3031462287728</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>618.948935615218</v>
+        <v>331.4545367678249</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>359.6155327270988</v>
+        <v>691.9682530670162</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>582.2076821670562</v>
+        <v>303.1281931227163</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>479.0889368726765</v>
+        <v>208.0120435948248</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>630.510717343483</v>
+        <v>533.3743996654525</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>360.9112080243524</v>
+        <v>650.5192998417245</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>453.9849658217501</v>
+        <v>570.6587211883215</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>446.1923378802642</v>
+        <v>295.1272525818458</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>282.889541850355</v>
+        <v>198.61774410383</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>457.5988172529698</v>
+        <v>200.8051018897964</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>469.4574811364438</v>
+        <v>404.7613965561664</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>743.2782597158219</v>
+        <v>503.9624578505561</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>474.3090147844651</v>
+        <v>432.6785675384475</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>245.1041488193843</v>
+        <v>610.7760143747151</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>228.6712551291909</v>
+        <v>433.9438238875719</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>250.5833267110066</v>
+        <v>679.588495825939</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>336.9001402423424</v>
+        <v>668.7611403293979</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>399.3655306440157</v>
+        <v>475.7756276886194</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>646.295842872385</v>
+        <v>540.6229371958894</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>606.0665362519097</v>
+        <v>290.9229507155396</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>526.0736470896959</v>
+        <v>634.0897173294629</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>553.3135696142393</v>
+        <v>496.7470358478917</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>549.2621637686461</v>
+        <v>661.4477315003509</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>278.0410997306801</v>
+        <v>419.6779206831387</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>432.3038868204642</v>
+        <v>542.3693697084647</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>267.6781785529436</v>
+        <v>255.7802422715464</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>513.1973715687085</v>
+        <v>456.5301229718775</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>222.433480232208</v>
+        <v>450.9388803924305</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>602.2099850653217</v>
+        <v>565.7727692071171</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>578.4433539955331</v>
+        <v>221.4132480607472</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>653.4359547735918</v>
+        <v>577.1356051505049</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>602.2782781254288</v>
+        <v>354.5357075257398</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>298.6487757936331</v>
+        <v>417.1530595047026</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>306.8088521890243</v>
+        <v>282.8235504056215</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>194.188727564522</v>
+        <v>647.6705969844855</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>457.991077229932</v>
+        <v>417.9773657879845</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>638.4475559083394</v>
+        <v>251.6901097165214</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>479.6327290536855</v>
+        <v>808.527718637759</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>552.2441919722354</v>
+        <v>211.1758340125682</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>575.8000460009589</v>
+        <v>399.4822863895012</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>387.0469748842314</v>
+        <v>483.3439245871968</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>704.0263598261542</v>
+        <v>457.6024884702184</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>501.3136831289478</v>
+        <v>364.7709068598957</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>358.4863479186773</v>
+        <v>259.9654539515529</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>565.09579321517</v>
+        <v>234.744971017088</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>580.2759550027396</v>
+        <v>577.571839608343</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>618.3752892019303</v>
+        <v>570.2613878052736</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>330.6764849166935</v>
+        <v>388.0365987317103</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>449.361853634577</v>
+        <v>594.4730741101806</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>566.5695864771411</v>
+        <v>313.3630585607877</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>388.7152558256016</v>
+        <v>331.1990513932171</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>524.7449736663652</v>
+        <v>405.2946245495882</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>233.8379233336256</v>
+        <v>588.2073655716357</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>241.9743438235848</v>
+        <v>538.8148166646035</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>389.9816829316377</v>
+        <v>494.3003391435213</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>444.6969385945665</v>
+        <v>469.1091385458294</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>480.4473557141384</v>
+        <v>396.3678154433639</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>580.6508885460131</v>
+        <v>583.4005390110383</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>325.4668423512116</v>
+        <v>479.1767619407401</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>462.047286483871</v>
+        <v>700.9113864113235</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>495.5280407944242</v>
+        <v>506.8854496398688</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>427.3851764128102</v>
+        <v>271.6456501989045</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>520.794644609732</v>
+        <v>365.7237092399774</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>330.0151620468782</v>
+        <v>493.1322212466094</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>459.6377257280228</v>
+        <v>507.3730793611883</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>275.8660316841327</v>
+        <v>285.2060429074808</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>463.0229733972836</v>
+        <v>561.7713915175011</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>635.9875425253618</v>
+        <v>383.972348722941</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>713.5956152032078</v>
+        <v>616.6074921937744</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>599.1093128485019</v>
+        <v>697.1005643288611</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>356.0389511527761</v>
+        <v>361.1698061750319</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>328.6656448266509</v>
+        <v>219.8425074110885</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>452.3786751883547</v>
+        <v>490.7142206792888</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>380.3476342469226</v>
+        <v>188.8998390972693</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>389.9239081210429</v>
+        <v>245.2940022576898</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>356.9429115937662</v>
+        <v>464.8513368169186</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>566.3494811557114</v>
+        <v>501.2306046295046</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>565.9504194241064</v>
+        <v>432.7678812863172</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>450.04873701241</v>
+        <v>512.4015096024583</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>583.9006208379898</v>
+        <v>636.9846990397496</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>596.9689836607964</v>
+        <v>499.5440741808218</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>361.9687906805858</v>
+        <v>333.5683045668831</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>614.401960231531</v>
+        <v>606.3715850699637</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>301.2873708387596</v>
+        <v>500.6906693864815</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>458.1174937276307</v>
+        <v>495.5553855108637</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>190.391067300474</v>
+        <v>714.2412078946055</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>462.3400590252814</v>
+        <v>341.3056968469829</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>551.0112241540423</v>
+        <v>308.2154660406198</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>528.5022173772581</v>
+        <v>601.8259866128088</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>423.503538991689</v>
+        <v>360.4209019962525</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>376.3027574162853</v>
+        <v>280.2957142314406</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>710.1249033243347</v>
+        <v>185.2426813605993</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>242.4600396151159</v>
+        <v>506.1161691788427</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>268.840459538043</v>
+        <v>673.1871482764211</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>643.5638467751183</v>
+        <v>323.0397652604617</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>251.3012233204849</v>
+        <v>559.1235635265343</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>382.7195377818942</v>
+        <v>407.5556408971516</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>521.5701885072754</v>
+        <v>642.6598129393088</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>619.5492652266182</v>
+        <v>463.5779363362698</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>394.7798929945745</v>
+        <v>341.071793413473</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>391.5700778257025</v>
+        <v>438.6574278057569</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>313.8053046878446</v>
+        <v>292.3152094443402</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>309.6898450055089</v>
+        <v>733.0840773261106</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>444.7869763168461</v>
+        <v>394.7689877908941</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>633.5739952604387</v>
+        <v>553.2237425650125</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>789.9283348805202</v>
+        <v>246.5187676645647</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>632.327828327529</v>
+        <v>601.3537141471204</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>399.1715572449768</v>
+        <v>330.5431995104591</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>578.494968196077</v>
+        <v>395.7730897647337</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>225.7241962413903</v>
+        <v>417.254532658863</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>407.8109869674673</v>
+        <v>672.9518199608883</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>616.0906860678988</v>
+        <v>520.2972647258212</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>391.1709773046713</v>
+        <v>472.0228487169911</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>702.656487090418</v>
+        <v>349.3109503843701</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>333.2717818896306</v>
+        <v>596.7646347834674</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32188,7 +32188,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>290.130161949374</v>
+        <v>761.1452439760282</v>
       </c>
     </row>
   </sheetData>

--- a/EconomicProject/Examples/Report_E2.xlsx
+++ b/EconomicProject/Examples/Report_E2.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>143:217</t>
+    <t>134:206</t>
   </si>
   <si>
-    <t>217:291</t>
+    <t>206:278</t>
   </si>
   <si>
-    <t>291:365</t>
+    <t>278:350</t>
   </si>
   <si>
-    <t>365:439</t>
+    <t>350:422</t>
   </si>
   <si>
-    <t>439:513</t>
+    <t>422:494</t>
   </si>
   <si>
-    <t>513:587</t>
+    <t>494:567</t>
   </si>
   <si>
-    <t>587:661</t>
+    <t>567:639</t>
   </si>
   <si>
-    <t>661:735</t>
+    <t>639:711</t>
   </si>
   <si>
-    <t>735:809</t>
+    <t>711:783</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>143:217</c:v>
+                  <c:v>134:206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217:291</c:v>
+                  <c:v>206:278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291:365</c:v>
+                  <c:v>278:350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>365:439</c:v>
+                  <c:v>350:422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>439:513</c:v>
+                  <c:v>422:494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>513:587</c:v>
+                  <c:v>494:567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>587:661</c:v>
+                  <c:v>567:639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>661:735</c:v>
+                  <c:v>639:711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>735:809</c:v>
+                  <c:v>711:783</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24142,13 +24142,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>360.2211819585467</v>
+        <v>646.2862154370756</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24156,13 +24156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>342.5577772855749</v>
+        <v>373.7453970064237</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24170,13 +24170,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>511.3670316420958</v>
+        <v>524.6826057150211</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24184,13 +24184,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>636.6176378236612</v>
+        <v>412.7987187098358</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24198,13 +24198,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>343.4915799413395</v>
+        <v>634.6522039670779</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24212,13 +24212,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>311.6246499919681</v>
+        <v>487.2244543066473</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24226,13 +24226,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>304.2313228176614</v>
+        <v>600.0502464004978</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24240,13 +24240,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>433.7748311767621</v>
+        <v>535.1050586147753</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24254,13 +24254,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>600.6503068581104</v>
+        <v>332.4765993476519</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24268,7 +24268,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>313.0112293544399</v>
+        <v>588.6853855906924</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>420.0884352608981</v>
+        <v>322.4816084971214</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>620.861939079</v>
+        <v>527.187954696535</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>552.4366716905686</v>
+        <v>540.5564671370681</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>346.4360881775862</v>
+        <v>431.7351304648978</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24308,7 +24308,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>575.5968527246998</v>
+        <v>509.7363812668955</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>544.1312537551613</v>
+        <v>718.034191566564</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>230.8304492429332</v>
+        <v>203.5211306567605</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>696.5203173705401</v>
+        <v>281.9698226642608</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>533.2520641340839</v>
+        <v>500.8503058539818</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>528.3871827021998</v>
+        <v>500.808310300547</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>707.4492842941382</v>
+        <v>442.5160886935138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>276.6852656364907</v>
+        <v>349.3360254658306</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>696.8002142464574</v>
+        <v>602.4016963528516</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>292.0372755397246</v>
+        <v>598.6244593468437</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>284.6087869909196</v>
+        <v>271.96197720419</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>506.8992222435236</v>
+        <v>440.7375518656951</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>414.0729162514374</v>
+        <v>311.0181582245497</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>321.0637508321789</v>
+        <v>642.7360948659441</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>231.6109996886906</v>
+        <v>318.8101874450733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>217.1576299124931</v>
+        <v>546.8331625235653</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>232.9833217827126</v>
+        <v>609.0278141449377</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>660.0963260986342</v>
+        <v>514.4510394750693</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>401.9840028346239</v>
+        <v>359.6673989864851</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>408.5445365008997</v>
+        <v>565.1457650850732</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>663.8150416773695</v>
+        <v>321.115398905694</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>587.9503178749113</v>
+        <v>604.8801184348431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>560.5916147066337</v>
+        <v>386.3282931943064</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>544.8701447730831</v>
+        <v>433.8763665699734</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>390.5487963918256</v>
+        <v>281.195413411095</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>779.8953008256046</v>
+        <v>326.8886385226592</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>541.1001901615551</v>
+        <v>378.9282459240698</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>605.7603116227266</v>
+        <v>534.9405746333681</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>471.2076261494465</v>
+        <v>414.3753196087882</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>325.8447739783225</v>
+        <v>482.6455709019239</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>331.2023825051753</v>
+        <v>518.494054488295</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>346.9336434030924</v>
+        <v>457.6748297339311</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>620.6695946376177</v>
+        <v>605.3186312119226</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>469.8426535023914</v>
+        <v>529.1625780030598</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>612.9826413900525</v>
+        <v>344.1166024567527</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>380.5129202059034</v>
+        <v>558.7913770787595</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>514.6376598938515</v>
+        <v>488.8909232537432</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>588.1262790344753</v>
+        <v>482.3993170569037</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>434.0081179807508</v>
+        <v>480.8533993795666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>668.2693695275318</v>
+        <v>603.99348024224</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>405.5377844830869</v>
+        <v>478.9915466323094</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>550.2927761460024</v>
+        <v>661.0750821808236</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>427.9201185569537</v>
+        <v>435.1973546721357</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>500.5279330318053</v>
+        <v>261.8426515175897</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>446.0908919082346</v>
+        <v>373.4379026954124</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>564.5228713065005</v>
+        <v>570.7393412040371</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>666.6915951433982</v>
+        <v>540.817896018872</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>591.5155292697925</v>
+        <v>649.13965632282</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>553.2263624822044</v>
+        <v>307.4125449737033</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>247.2850506320984</v>
+        <v>461.1917621476196</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>585.6866093275896</v>
+        <v>418.4716966554743</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>546.7054867883718</v>
+        <v>526.5678482888483</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>624.0712738040447</v>
+        <v>514.8636265296644</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>553.1233610038269</v>
+        <v>333.4359661526782</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>323.4315510928515</v>
+        <v>526.6440829431267</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>459.592391743598</v>
+        <v>476.853015994784</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>426.8823870004326</v>
+        <v>646.9503475349586</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>594.809444372583</v>
+        <v>666.2626158254803</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>524.5667640158314</v>
+        <v>531.0674002772959</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>475.0841188889831</v>
+        <v>498.3878462137008</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>634.2569601748249</v>
+        <v>179.272140203624</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>530.9117370455318</v>
+        <v>355.4618056896538</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>346.1837087479296</v>
+        <v>627.5760335599263</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>485.1994688242231</v>
+        <v>252.7206792244147</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>279.1390669062071</v>
+        <v>409.9308412779779</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>353.4908451961136</v>
+        <v>571.6151449725121</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>157.6786285624399</v>
+        <v>654.937423072134</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>304.3401221122279</v>
+        <v>288.3825345240107</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>440.5147928480837</v>
+        <v>492.3808334445504</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>292.6811741049434</v>
+        <v>505.7039555268232</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>544.728120917839</v>
+        <v>294.1063366177999</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>341.8915884777999</v>
+        <v>500.2212448963544</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>435.6543519693559</v>
+        <v>345.0625037616068</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>669.3664763144295</v>
+        <v>166.1701396816958</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>334.0499504987319</v>
+        <v>354.983005013245</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>558.8299209915403</v>
+        <v>731.3699826267687</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>651.3977234660746</v>
+        <v>250.8933138451161</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>418.1417869392682</v>
+        <v>514.6775495671823</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>628.8763219390087</v>
+        <v>364.0931118370942</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>461.6482680844931</v>
+        <v>332.1504888400788</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>256.5275135637779</v>
+        <v>374.7940706951602</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>588.5590978632262</v>
+        <v>614.8499826432974</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>347.9234527400982</v>
+        <v>205.0817631961444</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>278.1146354542167</v>
+        <v>251.2125895698788</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>181.8392379869183</v>
+        <v>650.5394053211161</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>510.9497686968505</v>
+        <v>551.4161382611716</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>572.7680763172573</v>
+        <v>342.188552732554</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>405.1888550635285</v>
+        <v>446.9289774152471</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>529.3444338170063</v>
+        <v>201.5787872702649</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>477.5515008438209</v>
+        <v>212.9985747549616</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>459.0869218498626</v>
+        <v>414.1057053644923</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>271.3643828847267</v>
+        <v>644.1626696917193</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>582.468361855801</v>
+        <v>321.0213810161253</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>314.0673459247123</v>
+        <v>573.0289001453923</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>388.4646749342434</v>
+        <v>188.2700212648777</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>398.4546574176414</v>
+        <v>421.1868006333333</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>752.3639262362207</v>
+        <v>500.0269416068508</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>628.5044806864894</v>
+        <v>445.4550565911862</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>398.9767395943774</v>
+        <v>447.1278867811008</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>381.4170514987198</v>
+        <v>610.8891094148308</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>508.8236205952225</v>
+        <v>269.8319777955587</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>690.2379277794838</v>
+        <v>623.9311903504868</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>680.0025647675125</v>
+        <v>322.4978545893486</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>580.8519172686086</v>
+        <v>504.728557291356</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>577.7324576690329</v>
+        <v>276.3718562515432</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>191.962177554056</v>
+        <v>514.3796800602818</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>512.8245269049862</v>
+        <v>319.3490518684935</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>369.3210468923887</v>
+        <v>186.9567090688767</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>393.259559340041</v>
+        <v>302.3874905426205</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>409.1881974854342</v>
+        <v>524.1186565909796</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>611.2773198560848</v>
+        <v>388.4501574528855</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>345.5388653138307</v>
+        <v>559.8602524985581</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>324.257964242715</v>
+        <v>502.8114546759846</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>704.4242088988964</v>
+        <v>148.0134287163495</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>529.0236083247543</v>
+        <v>431.3902751276974</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>241.1213715922666</v>
+        <v>484.0933172151305</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>514.1908249495659</v>
+        <v>590.6240920850685</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>208.5770687988662</v>
+        <v>299.3158749895348</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>551.4851425706546</v>
+        <v>618.5002051902646</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>434.2961640431778</v>
+        <v>248.9322496872073</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>566.2377756276612</v>
+        <v>390.232390346855</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>627.9916059269941</v>
+        <v>307.6123609347434</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>331.13050767091</v>
+        <v>619.243524465699</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>161.2297572199156</v>
+        <v>280.2304153301909</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>402.257716420876</v>
+        <v>667.125463825775</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>266.3545158183683</v>
+        <v>635.7885403868368</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>627.328819420696</v>
+        <v>623.0794812301225</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>337.676888662048</v>
+        <v>283.8536618941648</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>590.0442304006165</v>
+        <v>473.4627944648336</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>372.5046024960955</v>
+        <v>467.6829915604214</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>301.4512849499214</v>
+        <v>502.7336276034736</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>657.9441326101473</v>
+        <v>409.7196568156457</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>273.1097847946294</v>
+        <v>453.1563328498624</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>615.872552225094</v>
+        <v>297.3933341700925</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>620.1823967773225</v>
+        <v>328.3810836497684</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>731.271479458889</v>
+        <v>417.5769543631508</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>511.3976186012744</v>
+        <v>563.251260507907</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>419.3195358473951</v>
+        <v>285.3144116641636</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>564.169413081166</v>
+        <v>661.5893167177975</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>668.18017190454</v>
+        <v>275.2562257484405</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>418.6518386814421</v>
+        <v>202.4992131749637</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>277.327871134924</v>
+        <v>178.7375273090563</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>511.862294396375</v>
+        <v>302.9354235639245</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>427.760071374455</v>
+        <v>560.8283856646252</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>371.8730284726289</v>
+        <v>372.3745777926141</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>482.851312804719</v>
+        <v>322.9558381168468</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>594.8459679487269</v>
+        <v>523.7524307947007</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>519.8274784399126</v>
+        <v>632.2379797412849</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>463.8086865942558</v>
+        <v>624.9374749774859</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>389.9673873147169</v>
+        <v>276.3910137258475</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>463.1450560534216</v>
+        <v>636.025594261773</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>419.3868520073839</v>
+        <v>604.4869493903286</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>373.4689287605056</v>
+        <v>668.6302710614096</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>318.2955486524384</v>
+        <v>640.3406510044591</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>542.2768239474783</v>
+        <v>551.4160601405863</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>245.9954577860465</v>
+        <v>452.5179296824431</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>318.592385280157</v>
+        <v>384.2970209425997</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>258.092955920591</v>
+        <v>721.9976419663774</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>331.3381424730248</v>
+        <v>250.3044322298192</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>526.8480135923738</v>
+        <v>492.2733601608489</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>608.6429007877896</v>
+        <v>690.6903885919268</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>525.858485556737</v>
+        <v>670.0195332980317</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>369.5517699773839</v>
+        <v>406.9160081021344</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>685.1796709072593</v>
+        <v>640.6868640285635</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>183.3046378867015</v>
+        <v>155.9186300496081</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>342.7796296863782</v>
+        <v>598.1588003445213</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>336.1695948119819</v>
+        <v>585.1884036128979</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>537.9830580508627</v>
+        <v>484.4395292014382</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>292.9885231328292</v>
+        <v>376.6469493098971</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>402.697337517872</v>
+        <v>353.901329414037</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>316.3223579994555</v>
+        <v>284.1368790881</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>546.7357164903523</v>
+        <v>497.2363482801767</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>343.6775168578009</v>
+        <v>506.1537756399065</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>299.1719449035031</v>
+        <v>270.8162920646419</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>541.9011887120693</v>
+        <v>538.4972893559891</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>644.8256605118958</v>
+        <v>236.6613964048218</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>449.2790584127026</v>
+        <v>690.8993211019649</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>526.8939043303371</v>
+        <v>349.7084472386098</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>364.6443487720269</v>
+        <v>595.6746850340244</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>639.0220876263456</v>
+        <v>745.0917119442104</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>479.7184477028875</v>
+        <v>360.2565442797451</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>332.7878905647129</v>
+        <v>354.3095521243239</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>676.2655371523076</v>
+        <v>455.1234359661738</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>723.3325607696256</v>
+        <v>459.925643027629</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>232.3550857545672</v>
+        <v>475.5770803405288</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>391.1948302884066</v>
+        <v>671.7073971956592</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>517.9387463597593</v>
+        <v>260.6711273794198</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>210.7135811291983</v>
+        <v>651.6274722440083</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>478.9072336929692</v>
+        <v>511.4086652927811</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>659.0000684967069</v>
+        <v>480.2700151942132</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>643.0256505918813</v>
+        <v>627.2709179353127</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>665.2414934972479</v>
+        <v>404.2546723068976</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>337.3700488278156</v>
+        <v>483.2227732351076</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>706.8299448616699</v>
+        <v>609.8586971219628</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>384.2849500310505</v>
+        <v>305.5542775499847</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>595.3439574075013</v>
+        <v>454.2704483825039</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>446.1010832147042</v>
+        <v>352.516243814123</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>351.0315370094698</v>
+        <v>430.5732088362224</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>401.3830389902317</v>
+        <v>764.5716242843713</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>293.3846528060349</v>
+        <v>578.1962853957532</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>434.6371849313154</v>
+        <v>454.1273246617351</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>627.500617330924</v>
+        <v>385.4628031280803</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>426.8140697523591</v>
+        <v>471.0767374028756</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>487.1576431682834</v>
+        <v>761.8780015387777</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>216.1745969871963</v>
+        <v>502.7937385507692</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>392.7939805174815</v>
+        <v>422.8525526902789</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>585.4986328010959</v>
+        <v>317.7717802480298</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>425.3457123909324</v>
+        <v>525.2631270804665</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>282.8247770956469</v>
+        <v>338.0129562246372</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>401.6383032848908</v>
+        <v>653.9263636104839</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>538.8253797176972</v>
+        <v>432.5389358993635</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>593.4770811126266</v>
+        <v>387.4758207093319</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>651.6512568300292</v>
+        <v>517.9308307355474</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>533.9423166885283</v>
+        <v>609.2915320790522</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>294.2126754203607</v>
+        <v>441.7565908297599</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>579.720241267369</v>
+        <v>584.9554102585828</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>220.7321560626847</v>
+        <v>445.4830994069909</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>403.7874755759285</v>
+        <v>640.7178420655566</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>560.52342434181</v>
+        <v>389.098993173205</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>569.3980829274019</v>
+        <v>498.9422746596814</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>614.5687336563685</v>
+        <v>318.232761788727</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>625.7322759364296</v>
+        <v>682.2700129120726</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>763.8688854918272</v>
+        <v>557.8473082179952</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>614.3568633733613</v>
+        <v>319.8141688516966</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>378.5103859525045</v>
+        <v>528.1990976982813</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>473.7666457103028</v>
+        <v>323.8748977498444</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>239.9856922613282</v>
+        <v>393.9403391139793</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>637.2881399967946</v>
+        <v>445.0951573415319</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>505.5089721482811</v>
+        <v>337.1440956928711</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>498.1635732438806</v>
+        <v>423.8579139044423</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>328.7721680644356</v>
+        <v>256.4179862962723</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>492.8033771429547</v>
+        <v>391.6943438745652</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>669.1847350581568</v>
+        <v>332.9078348152774</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>554.5590219901353</v>
+        <v>283.901404748077</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>467.4866163788399</v>
+        <v>355.8579765528406</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>415.4691686656043</v>
+        <v>561.0655341513002</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>351.2276392302934</v>
+        <v>523.8245546129311</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>414.2325881401873</v>
+        <v>276.5710569514505</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>639.6982679410097</v>
+        <v>309.3518319156694</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>380.1381989914966</v>
+        <v>564.2416251835673</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>277.9783784269187</v>
+        <v>306.5494185329031</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>235.3985531631552</v>
+        <v>353.0075445518751</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>467.5912678323355</v>
+        <v>759.6532361371577</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>665.3317929469985</v>
+        <v>582.9457089289129</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>311.2499718772044</v>
+        <v>308.0116426254078</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>564.5356269376028</v>
+        <v>441.5035815967739</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>402.683617922446</v>
+        <v>318.8511802156119</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>204.1394044550667</v>
+        <v>474.8925436133661</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>434.8024398672985</v>
+        <v>486.0790644264745</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>515.0155141009483</v>
+        <v>558.6163751150987</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>312.2331085522977</v>
+        <v>327.2343723754531</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>648.1503704175644</v>
+        <v>361.5982931251724</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>597.0606766605772</v>
+        <v>370.9465811714707</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>553.2098016123136</v>
+        <v>527.460486723844</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>624.6962449000506</v>
+        <v>448.0863076404474</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>388.3558134718117</v>
+        <v>656.2822361017229</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>637.8099745074608</v>
+        <v>696.3009421228065</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>442.2157505913547</v>
+        <v>672.0335572381869</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>704.8400484958538</v>
+        <v>521.3502704820999</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>389.7310393296456</v>
+        <v>650.1546784086158</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>633.7026341672192</v>
+        <v>480.2374476852696</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>765.7106090022133</v>
+        <v>275.2334838499754</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>603.2423964402868</v>
+        <v>560.6877299433714</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>261.9032768718194</v>
+        <v>580.9159521644285</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>376.2369583981437</v>
+        <v>497.1207180147395</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>360.3418027828383</v>
+        <v>312.7771758403572</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>592.7744511807688</v>
+        <v>378.1078463033954</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>323.7757699943709</v>
+        <v>652.9767746288906</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>747.3200184964094</v>
+        <v>595.247130224878</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>420.8425892808528</v>
+        <v>226.2329164331649</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>536.9797591184789</v>
+        <v>418.0085247061327</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>471.7297246726068</v>
+        <v>388.5459471040392</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>601.5965676684292</v>
+        <v>500.7361605668313</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>368.9879777917579</v>
+        <v>528.1706613193165</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>252.9787343663876</v>
+        <v>207.5965587944339</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>485.005879984124</v>
+        <v>408.9367162828046</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>500.9900224774112</v>
+        <v>275.0363080852795</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>187.2522094807764</v>
+        <v>496.1588986899523</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>327.4496336002582</v>
+        <v>657.3792190254649</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>172.4819669420999</v>
+        <v>714.6652546270843</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>330.2173378519485</v>
+        <v>414.3958584838451</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>604.4044189947836</v>
+        <v>582.5131720448007</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>604.2659344793242</v>
+        <v>515.342755135532</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>419.652807419111</v>
+        <v>328.951187445352</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>617.9572007127216</v>
+        <v>322.7067785097917</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>584.2260734834128</v>
+        <v>287.510928881637</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>487.9945273677262</v>
+        <v>472.2304639401865</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>529.8376786972872</v>
+        <v>529.1414658943673</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>605.3482091994397</v>
+        <v>459.9461947954938</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>406.7155491542533</v>
+        <v>227.4868166656003</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>673.9840116851008</v>
+        <v>596.6779083336752</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>514.2833680477629</v>
+        <v>552.3470205667501</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>711.8129374132905</v>
+        <v>682.6924396531243</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>461.2460412149038</v>
+        <v>419.4299565473354</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>566.734990651835</v>
+        <v>486.9542082634014</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>200.4398842740561</v>
+        <v>393.383401917782</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>500.1160379741443</v>
+        <v>480.6902396868135</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>517.4925422986321</v>
+        <v>456.4566714469941</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>586.3788927554687</v>
+        <v>633.2946977748886</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>511.9059832058261</v>
+        <v>245.4875162042856</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>589.6070431019326</v>
+        <v>306.8865878765664</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>304.357727413519</v>
+        <v>683.435006337437</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>606.224704299624</v>
+        <v>463.5831993622326</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>517.3846771085706</v>
+        <v>557.4562073063522</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>498.6713602789036</v>
+        <v>548.4007888322698</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>259.5295610465178</v>
+        <v>629.1083965200548</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>473.4727036374935</v>
+        <v>465.0427197425347</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>365.8185008171819</v>
+        <v>527.5313096481784</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>269.3800167786936</v>
+        <v>474.5980932367578</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>300.5646867517624</v>
+        <v>497.4847976115398</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>382.7398482938513</v>
+        <v>449.1143089273977</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>580.6128805826753</v>
+        <v>509.6983030258424</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>567.9938950578555</v>
+        <v>237.6452497598582</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>757.6924269200433</v>
+        <v>588.5207467138493</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>714.0190399121666</v>
+        <v>338.2720319624337</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>527.9741997012954</v>
+        <v>658.6789626372711</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>564.3858380801646</v>
+        <v>627.3004797734351</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>383.41642970908</v>
+        <v>251.2690103624994</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>317.3085371154608</v>
+        <v>538.9259225291257</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>293.5505145269709</v>
+        <v>559.1000241511983</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>623.2636824859406</v>
+        <v>684.5003720041839</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>341.7401091237449</v>
+        <v>316.7327948014943</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>615.8756175687421</v>
+        <v>637.0164151929866</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>414.9499374215552</v>
+        <v>291.738044174817</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>463.6160837373713</v>
+        <v>679.0717230116583</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>475.0345837337614</v>
+        <v>352.5047903298908</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>352.2519414360831</v>
+        <v>579.4699180108821</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>412.4226028790783</v>
+        <v>468.8318432326182</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>669.8087922300159</v>
+        <v>546.1840134135074</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>236.3317543618812</v>
+        <v>201.0987244002106</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>539.6430408506131</v>
+        <v>568.1094813412382</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>247.0730694776119</v>
+        <v>529.3848866533106</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>352.8166414878197</v>
+        <v>480.3042934743481</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>348.8598845158717</v>
+        <v>196.1970559408871</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>372.8487604931597</v>
+        <v>284.6463346093202</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>232.4178308903382</v>
+        <v>590.571819956241</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>552.3051960623534</v>
+        <v>304.0891999933381</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>365.8467679916053</v>
+        <v>458.7372024487694</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>558.2930776794318</v>
+        <v>460.9490249859841</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>410.7661665236574</v>
+        <v>270.5168429333065</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>650.9978588081439</v>
+        <v>642.1834650733333</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>572.2781872357245</v>
+        <v>332.5964381094595</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>303.8931353011097</v>
+        <v>598.838823492765</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>569.7504126060741</v>
+        <v>544.0425772414447</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>630.0817058359069</v>
+        <v>352.1355700142663</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>606.1102652769179</v>
+        <v>301.4989267198381</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>488.4482298687459</v>
+        <v>492.0734482447266</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>552.3628520360227</v>
+        <v>288.4475049696387</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>685.0405470738129</v>
+        <v>271.8778014748304</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>518.2871283281165</v>
+        <v>407.8342650311164</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>579.3377069311859</v>
+        <v>613.0075722072055</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>474.2082761640646</v>
+        <v>326.2489890068108</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>691.7681372233674</v>
+        <v>185.2561719543973</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>373.5093198417737</v>
+        <v>341.7171533292859</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>335.9057935872429</v>
+        <v>442.5872994947113</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>506.1251721214081</v>
+        <v>275.7770954519563</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>369.3112940999135</v>
+        <v>362.5663039349243</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>511.9098880027863</v>
+        <v>362.0160882274378</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>479.5498133634179</v>
+        <v>263.7130444098761</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>532.3839182116992</v>
+        <v>375.6262728275054</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>603.0662667250623</v>
+        <v>734.4352401326776</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>354.8694206312118</v>
+        <v>364.7034794858262</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>403.8722292012711</v>
+        <v>352.1385504721825</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>427.468592469291</v>
+        <v>322.355620122498</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>502.3332839745842</v>
+        <v>501.2345563940141</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>317.2920051669136</v>
+        <v>338.7166284706408</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>411.9161945366662</v>
+        <v>394.297260285452</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>465.0760522894345</v>
+        <v>208.9025178909713</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>223.1968542543808</v>
+        <v>504.594476909811</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>648.3918758929192</v>
+        <v>365.7771695068719</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>631.0841038865728</v>
+        <v>513.0972346417138</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>478.4700960526732</v>
+        <v>379.5977008505185</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>546.4782133528195</v>
+        <v>717.2492173705926</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>575.7711651822076</v>
+        <v>536.766372105571</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>729.3624054749183</v>
+        <v>389.254254327984</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>538.5491906038662</v>
+        <v>524.2301794090644</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>686.6017821076175</v>
+        <v>711.3797570544394</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>520.442688055886</v>
+        <v>629.8901772422041</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>689.9130859493121</v>
+        <v>285.6296551592236</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>520.1786423799288</v>
+        <v>261.6902211055338</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>672.9236987803705</v>
+        <v>516.2610447488322</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>417.5950216850385</v>
+        <v>279.2692662117114</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>488.2323892600588</v>
+        <v>492.1756721615168</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>445.9159170848827</v>
+        <v>636.6815671380613</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>531.7459204578137</v>
+        <v>296.795811948229</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>276.0685359536617</v>
+        <v>513.8202512335038</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>358.1082942508307</v>
+        <v>485.2729108710193</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>557.9733288242167</v>
+        <v>491.9789218285124</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>470.6771620200218</v>
+        <v>424.0496479487917</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>613.1432422590184</v>
+        <v>329.3474554455219</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>532.1634380230379</v>
+        <v>523.1911455126075</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>203.9530352450148</v>
+        <v>482.0804601716614</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>449.923956294109</v>
+        <v>650.6664239436376</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>446.3172956014622</v>
+        <v>473.0738341511563</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>215.4942373542885</v>
+        <v>652.6447785153555</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>671.3167355007845</v>
+        <v>475.5239868784789</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>437.9682133379101</v>
+        <v>335.973128110265</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>662.4366005910537</v>
+        <v>400.1563714676661</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>542.2628287133354</v>
+        <v>619.2358824752458</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>674.6935013472909</v>
+        <v>659.7836467681733</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>436.2192573210876</v>
+        <v>353.4379723196962</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>608.1267918182622</v>
+        <v>678.9966786980276</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>389.0162857499367</v>
+        <v>545.045452810318</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>359.2062744940774</v>
+        <v>683.0856063622168</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>435.0160507037684</v>
+        <v>622.7093208696921</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>432.2507733228239</v>
+        <v>496.352160815233</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>396.833087916689</v>
+        <v>389.3603313210518</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>341.2182264518401</v>
+        <v>402.9450307591413</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>635.3369416220314</v>
+        <v>570.4798447736355</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>258.2225083044548</v>
+        <v>420.8391909656354</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>259.8634365741603</v>
+        <v>469.900889712817</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>342.5666132510599</v>
+        <v>449.1267716287779</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>687.8428340102671</v>
+        <v>303.9496389808002</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>435.0469512042551</v>
+        <v>403.326975568738</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>530.3854203048742</v>
+        <v>578.0595474729196</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>571.7706755409777</v>
+        <v>409.0081947930152</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>718.2263855241764</v>
+        <v>663.8353043422705</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>616.1877691716014</v>
+        <v>553.0671068717045</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>679.2241544045399</v>
+        <v>392.5159124015718</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>298.4542583237002</v>
+        <v>358.0848945047169</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>411.2809669633504</v>
+        <v>469.1265066798166</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>567.4235279581713</v>
+        <v>460.1210744234957</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>531.9204557905113</v>
+        <v>684.2713261553348</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>541.857128984291</v>
+        <v>248.4578069700774</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>650.0648805270852</v>
+        <v>306.682937054648</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>679.5063803548708</v>
+        <v>482.4946328749434</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>328.4479907540129</v>
+        <v>242.5464172431628</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>454.3702525782262</v>
+        <v>288.6293866852448</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>497.3496578925511</v>
+        <v>195.6982160991799</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>433.8944632467854</v>
+        <v>693.239828043527</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>578.5831715137624</v>
+        <v>653.9231109003366</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>411.1816255624312</v>
+        <v>557.1704643270176</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>583.7928618877918</v>
+        <v>568.166959607939</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>624.4468783216552</v>
+        <v>396.7687166318332</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>470.8626617929666</v>
+        <v>274.6403435557119</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>377.9603743586422</v>
+        <v>243.2792384565415</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>412.2539950613302</v>
+        <v>578.4880144183591</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>308.7288781614541</v>
+        <v>340.1864779349713</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>494.7411723659261</v>
+        <v>352.7694421573275</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>694.1782093479629</v>
+        <v>447.3008342265343</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>359.9205064536338</v>
+        <v>249.9254238081788</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>569.6912307077537</v>
+        <v>627.2399062423048</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>690.4990300801592</v>
+        <v>249.8220374341686</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>549.343623192683</v>
+        <v>315.0401858894136</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>178.9499424971297</v>
+        <v>563.723202064827</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>343.0225515842694</v>
+        <v>397.3703202194874</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>286.9980385412148</v>
+        <v>484.4672484250819</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>385.0293622356135</v>
+        <v>259.9114646552045</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>776.3612360529854</v>
+        <v>335.8687034074251</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>735.2353055715121</v>
+        <v>306.0797764477742</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>514.7368456354342</v>
+        <v>357.7278477224076</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>638.2845164109533</v>
+        <v>200.489273683564</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>570.7877404849663</v>
+        <v>585.9822705231006</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>676.0397384933515</v>
+        <v>358.0168113511732</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>402.5294572859842</v>
+        <v>307.3675260923862</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>501.6873962908917</v>
+        <v>198.9874568136603</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>247.5601822070998</v>
+        <v>587.7562267852936</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>663.334021205862</v>
+        <v>260.5886550703494</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>335.448793616364</v>
+        <v>621.9459613475632</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>479.1045083599066</v>
+        <v>151.6041576310018</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>439.3527571373828</v>
+        <v>538.2609469255495</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>498.7157100547471</v>
+        <v>263.1736056802545</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>339.2220568155277</v>
+        <v>562.5338800600088</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>526.5837554010843</v>
+        <v>334.7845927091602</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>658.8062717717967</v>
+        <v>457.0389106903044</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>396.9879387076533</v>
+        <v>638.6822185675018</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>470.2643740366023</v>
+        <v>612.8997776831749</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>557.4623527590694</v>
+        <v>585.4196208032723</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>569.9621081972782</v>
+        <v>215.0140050473167</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>408.5073754422289</v>
+        <v>574.2768267063782</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>272.2252940481605</v>
+        <v>152.9658441014455</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>216.4521705083306</v>
+        <v>315.5196305427737</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>540.2585708385155</v>
+        <v>625.2976310067243</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>598.9243582815933</v>
+        <v>454.6602038072387</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>596.1996497477128</v>
+        <v>161.5453951670932</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>429.8989478816595</v>
+        <v>286.256095916931</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>485.9760948010551</v>
+        <v>476.8271103964231</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>586.0378952483845</v>
+        <v>241.7877062994949</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>736.91552349086</v>
+        <v>651.040051418311</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>399.6235409816717</v>
+        <v>544.5466116529642</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>572.6641099020945</v>
+        <v>246.8352393035175</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>481.4492546994124</v>
+        <v>322.3864208442141</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>452.7472052461525</v>
+        <v>585.1576913525741</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>465.9271153577993</v>
+        <v>247.4850662295795</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>705.4664559138241</v>
+        <v>280.9913962077227</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>379.3295831550153</v>
+        <v>450.7647622004773</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>555.9455619139087</v>
+        <v>346.1108919376229</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>432.2166751214885</v>
+        <v>565.2733361067778</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>310.966699414935</v>
+        <v>475.5593425729101</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>501.1281158652867</v>
+        <v>378.2043218983633</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>722.1168027010891</v>
+        <v>371.6780503137593</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>631.9784709607319</v>
+        <v>311.627977323749</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>453.1663648324609</v>
+        <v>637.3922819271072</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>541.1322231692867</v>
+        <v>395.5984899502269</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>265.1109296395427</v>
+        <v>498.2394790644005</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>442.7652516673193</v>
+        <v>578.8936531561109</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>549.7894832013558</v>
+        <v>672.7362320224011</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>336.8372728131793</v>
+        <v>572.0236745283854</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>532.9283668070457</v>
+        <v>665.6621762646357</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>694.9476969150844</v>
+        <v>283.532176678465</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>318.1347879786038</v>
+        <v>712.8642771782364</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>296.2992770263746</v>
+        <v>217.7903677339021</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>617.1872450987802</v>
+        <v>531.2059284667295</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>397.3981063425416</v>
+        <v>215.8948288039271</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>437.6541281543329</v>
+        <v>141.5567147558322</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>248.0226124947739</v>
+        <v>285.4101394461066</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>612.8104074440615</v>
+        <v>345.3029361668072</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>294.5822094496279</v>
+        <v>523.1607172505561</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>442.6420989960687</v>
+        <v>541.9565787063514</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>379.9993432912104</v>
+        <v>705.6563451279092</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>292.1188202178298</v>
+        <v>452.4384119057977</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>486.0044795234783</v>
+        <v>329.9513418313463</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>296.0858942356641</v>
+        <v>318.1286227770024</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>335.234007533715</v>
+        <v>377.3227840062582</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>399.3947502934649</v>
+        <v>564.5407963514135</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>543.3544012502529</v>
+        <v>303.2999080434814</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>548.5185659896864</v>
+        <v>391.7321536370345</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>545.9743131162494</v>
+        <v>316.2754593299015</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>610.5453851696728</v>
+        <v>454.6078698919664</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>497.0916398217731</v>
+        <v>582.5110184455283</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>285.2119799202123</v>
+        <v>317.964858903545</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>215.007121166967</v>
+        <v>283.368770662943</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>493.0074040986374</v>
+        <v>370.1030576320819</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>623.8860716493077</v>
+        <v>524.7498172152261</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>635.2172165497991</v>
+        <v>705.5958937990956</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>499.3221616012518</v>
+        <v>189.9713981014727</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>566.2402548174978</v>
+        <v>411.5345660708611</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>340.2042504147448</v>
+        <v>323.7118273450116</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>546.5970214351178</v>
+        <v>584.6255154880305</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>414.1993007834468</v>
+        <v>559.9763150126211</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>327.7818494857986</v>
+        <v>338.8818155329189</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>173.6543203073558</v>
+        <v>357.8141272996741</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>519.6331849017777</v>
+        <v>277.0096243315375</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>228.4983436252126</v>
+        <v>445.1643001191084</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>310.5256123447731</v>
+        <v>554.7498748434623</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>450.9000122048165</v>
+        <v>347.3627929255276</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>534.0159025656594</v>
+        <v>282.9366466518177</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>553.0282573398739</v>
+        <v>190.2434519896672</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>587.553382011658</v>
+        <v>370.8347486545497</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>418.7121429825291</v>
+        <v>607.7214126622054</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>313.6618686965975</v>
+        <v>419.054822917893</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>392.6316795904881</v>
+        <v>501.4400239249417</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>435.1195964209361</v>
+        <v>676.8337335994884</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>329.9999082053183</v>
+        <v>544.9400977813797</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>499.5537840651252</v>
+        <v>496.0151903171786</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>768.0263900910213</v>
+        <v>428.5311906757315</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>446.7584319405253</v>
+        <v>412.8423873589915</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>224.1652541633599</v>
+        <v>711.6596744320622</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>318.4152268142419</v>
+        <v>605.6038662772378</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>284.2998684343543</v>
+        <v>650.2481169066069</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>263.2586853614844</v>
+        <v>536.9206444383734</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>223.5574883221869</v>
+        <v>657.8696380892648</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>456.5384066057055</v>
+        <v>533.8262475967557</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>292.6337670578477</v>
+        <v>466.1799425621996</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>523.7066341046165</v>
+        <v>622.5617027595486</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>339.1420737733321</v>
+        <v>388.778152930159</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>366.4024416022381</v>
+        <v>267.3261511384049</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>419.0235488862748</v>
+        <v>408.6598710798722</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>619.0826265335673</v>
+        <v>474.5303434626438</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>526.489147783057</v>
+        <v>417.1214766137781</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>475.156597062588</v>
+        <v>487.5083824623842</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>494.0997756401928</v>
+        <v>329.5659160329989</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>420.3244903405725</v>
+        <v>614.2752184850021</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>537.0227308470868</v>
+        <v>316.174586735847</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>726.1442329582027</v>
+        <v>418.7564758432521</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>588.8840607441283</v>
+        <v>557.1884242838806</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>253.946327130428</v>
+        <v>498.443192109082</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>423.8321910756724</v>
+        <v>451.1040254233615</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>378.2421773912548</v>
+        <v>445.1112560247674</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>662.9161538365495</v>
+        <v>633.7742788969717</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>525.8274023027506</v>
+        <v>340.8117780088834</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>449.7648099656381</v>
+        <v>443.7831195496261</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>318.2546379750244</v>
+        <v>676.4140540385254</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>576.4144741297993</v>
+        <v>493.4725834592631</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>360.2352520971737</v>
+        <v>639.3779481818103</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>606.1726258675758</v>
+        <v>645.0109018837003</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>155.1052176103615</v>
+        <v>445.2331188646819</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>499.6970271740086</v>
+        <v>673.2902624287884</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>425.2159609092599</v>
+        <v>701.935483484952</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>708.0025812858411</v>
+        <v>514.8331473720017</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>711.7450095669635</v>
+        <v>459.9477100725553</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>654.3123441655764</v>
+        <v>366.4998401989143</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>624.4095292589471</v>
+        <v>357.9272388442776</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>595.9651064840376</v>
+        <v>465.4426234564077</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>308.4069498376473</v>
+        <v>535.1685913498583</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>662.1602365607275</v>
+        <v>407.4139860814502</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>626.140764309982</v>
+        <v>350.1035447771319</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>476.8437485800652</v>
+        <v>197.9384712649375</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>281.6145653587034</v>
+        <v>550.5244873073354</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>571.6186404764818</v>
+        <v>275.1563308598517</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>479.2393704249107</v>
+        <v>172.8882287098733</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>650.8856085262393</v>
+        <v>406.6442716303081</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>473.13468577812</v>
+        <v>389.1954093318325</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>217.102557199761</v>
+        <v>342.9798797990236</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>512.3994902467927</v>
+        <v>251.3953875870281</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>554.2055911660744</v>
+        <v>705.382765917944</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>525.1213044929592</v>
+        <v>335.5072156593177</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>721.2980194967638</v>
+        <v>521.4738813666677</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>436.6882397379509</v>
+        <v>521.9882260167607</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>415.9391182730167</v>
+        <v>562.971993143743</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>309.7062249714286</v>
+        <v>240.0577807517317</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>359.4399020651952</v>
+        <v>648.9248570497921</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>625.4561229574746</v>
+        <v>260.5440647184373</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>374.8460523831735</v>
+        <v>509.8453489411783</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>576.8707891734805</v>
+        <v>676.0242954960704</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>707.8606184551106</v>
+        <v>444.1066055749366</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>377.8966668097564</v>
+        <v>485.3656533455234</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>362.8927288893014</v>
+        <v>474.6843677481989</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>429.2758333147424</v>
+        <v>434.2071382085186</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>546.2260364622134</v>
+        <v>319.8667284389041</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>537.8006121814485</v>
+        <v>580.441839823727</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>274.332922451931</v>
+        <v>225.3958242332735</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>334.3874078182002</v>
+        <v>380.9373789853727</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>372.787805127111</v>
+        <v>596.682035654109</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>387.046509750402</v>
+        <v>704.5494267700838</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>665.0653638536621</v>
+        <v>630.8567239041853</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>336.5790751184234</v>
+        <v>488.5454063139184</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>388.9325399540618</v>
+        <v>600.8720419238515</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>391.4878433846009</v>
+        <v>512.8679147219589</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>578.4215537114126</v>
+        <v>559.6020111871284</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>437.6162620932365</v>
+        <v>598.279655473317</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>615.9492353012198</v>
+        <v>417.5933487864712</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>353.4444799114259</v>
+        <v>723.4346697651764</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>632.785300372666</v>
+        <v>560.5623633963253</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>425.2855833638708</v>
+        <v>557.8979782187555</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>709.0036987110108</v>
+        <v>264.3369048897167</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>390.8212426053337</v>
+        <v>716.6874038315431</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>377.8408415874368</v>
+        <v>488.61126325536</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>143.1760140129394</v>
+        <v>546.5201860732441</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>663.8142794773577</v>
+        <v>755.4598662186779</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>539.5588576560657</v>
+        <v>341.2305616843566</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>504.2863334268035</v>
+        <v>411.7820881248348</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>378.7984078496776</v>
+        <v>293.2188567484102</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>441.7340705629375</v>
+        <v>656.3173982286504</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>625.1916558626409</v>
+        <v>612.3937234240544</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>561.7027441670331</v>
+        <v>595.190618159369</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>517.43609642648</v>
+        <v>709.0050897355327</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>464.9515028411935</v>
+        <v>366.1102036291133</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>433.3222262559288</v>
+        <v>650.2423927072888</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>558.5979322958423</v>
+        <v>300.0892970236591</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>197.0667466213134</v>
+        <v>209.075378517164</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>352.2438899947463</v>
+        <v>344.3798480261772</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>702.5354897885654</v>
+        <v>556.5283345967883</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>327.540199050942</v>
+        <v>690.7448286175284</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>442.1080131402327</v>
+        <v>434.0175983980595</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>375.0494914515991</v>
+        <v>656.626181037162</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>519.8647099280248</v>
+        <v>674.65607360077</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>641.64792508501</v>
+        <v>579.6481710333936</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>345.02204873392</v>
+        <v>503.9811320005239</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>413.1479648004778</v>
+        <v>429.4146053292052</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>535.3243867828523</v>
+        <v>234.5097820449407</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>339.0818275405957</v>
+        <v>614.0239044627501</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>639.5430380269046</v>
+        <v>301.2662482131597</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>240.6733110435929</v>
+        <v>777.2030089224799</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>369.1700571166589</v>
+        <v>616.1964269243248</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>376.000588989782</v>
+        <v>480.8390335201457</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>444.7622256045136</v>
+        <v>567.4611381365341</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>508.505300246198</v>
+        <v>501.3434834208691</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>390.2968424251401</v>
+        <v>538.8327440066919</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>634.2209926424347</v>
+        <v>220.6788516676811</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>240.6182928077083</v>
+        <v>403.9157544472454</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>233.8545873142339</v>
+        <v>595.4945304245848</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>256.5024732135305</v>
+        <v>255.9289500694919</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>733.3026698299548</v>
+        <v>418.4606174727326</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>606.635220988825</v>
+        <v>339.7824913182739</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>246.1112371098379</v>
+        <v>544.4639244726834</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>590.0571256932882</v>
+        <v>283.3549907882715</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>545.4830158993102</v>
+        <v>518.957559426673</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>319.297760349822</v>
+        <v>558.4728066785913</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>410.6814843873386</v>
+        <v>348.0471518254902</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>476.7616472274883</v>
+        <v>587.6840136705388</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>585.8725748674391</v>
+        <v>257.7469170937882</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>705.4355535471257</v>
+        <v>507.2590810135791</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>315.2209571668844</v>
+        <v>626.2038593785023</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>525.3885524640635</v>
+        <v>342.7325229873472</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>575.5889295437142</v>
+        <v>277.8803863423691</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>648.8308798566504</v>
+        <v>540.2992338259078</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>658.0019469076913</v>
+        <v>645.5892643830396</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>514.3489607775132</v>
+        <v>590.7770055229605</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>563.3670633842059</v>
+        <v>387.0896094756674</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>584.8025790082266</v>
+        <v>553.9998792075412</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>651.3887632167412</v>
+        <v>473.0926294311204</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>461.230771627866</v>
+        <v>510.744401237603</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>777.1370834758683</v>
+        <v>433.4452347829927</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>254.1177183696182</v>
+        <v>162.6085911928482</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>434.4550111288906</v>
+        <v>489.7292619210038</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>393.8833108563206</v>
+        <v>259.8056018022023</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>494.0965798885092</v>
+        <v>550.0395023874755</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>606.2613417116049</v>
+        <v>519.7085078668413</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>510.6809707311022</v>
+        <v>304.2162774955125</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>713.111354647609</v>
+        <v>315.1648854124038</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>657.4077866839348</v>
+        <v>481.8770268362053</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>623.6751178910882</v>
+        <v>337.8289623289685</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>512.2111366854072</v>
+        <v>221.8330246102625</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>524.3596118354293</v>
+        <v>368.083666552131</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>632.4096742474968</v>
+        <v>463.4600637707174</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>476.2370994237318</v>
+        <v>653.5356886162343</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>650.7761804630674</v>
+        <v>718.5997926075389</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>434.0490386991539</v>
+        <v>603.4621731862781</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>444.5554649437606</v>
+        <v>393.2008112405296</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>522.9337397492523</v>
+        <v>580.5115242033406</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>532.0543712173289</v>
+        <v>632.0471535088461</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>543.8831805708071</v>
+        <v>437.7293296612283</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>581.3360680868354</v>
+        <v>307.6281458305781</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>416.496881071543</v>
+        <v>206.808267158534</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>296.9990045300468</v>
+        <v>194.1436497627395</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>385.3247110913391</v>
+        <v>581.9429023338254</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>553.5645426220876</v>
+        <v>316.3368286241952</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>249.0408901804222</v>
+        <v>625.9368419910794</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>646.3606826610085</v>
+        <v>582.9349378178835</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>672.1971232299437</v>
+        <v>479.618991509562</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>626.73544516262</v>
+        <v>514.7904437730799</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>374.2226574388317</v>
+        <v>375.9095947294626</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>397.9865645758893</v>
+        <v>316.1837440174172</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>427.6936633672498</v>
+        <v>263.950456856121</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>612.7102137953675</v>
+        <v>628.8139079257013</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>328.4815766740628</v>
+        <v>372.1107217697335</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>605.4586477446232</v>
+        <v>745.1859731136702</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>306.1392959818911</v>
+        <v>154.5221490688615</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>234.7267287149435</v>
+        <v>297.2424069259615</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>629.198475553231</v>
+        <v>387.9703600661172</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>343.547138740919</v>
+        <v>372.2488444479151</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>509.3591087385117</v>
+        <v>342.2396119959992</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>575.0459382064215</v>
+        <v>751.6919021384849</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>641.0037971922047</v>
+        <v>573.6431905767167</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>428.3459019267857</v>
+        <v>613.4193171296748</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>239.3879545108368</v>
+        <v>354.9735701284503</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>249.6152734394732</v>
+        <v>470.4764816861399</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>363.1448551980725</v>
+        <v>535.4965772732655</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>453.6478015243173</v>
+        <v>291.2156675505973</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>518.3845010704451</v>
+        <v>546.9993244628857</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>615.038850585398</v>
+        <v>542.4274554200215</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>496.2976547016304</v>
+        <v>355.6516445015021</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>592.2735282953565</v>
+        <v>307.7009298268984</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>697.7773980832014</v>
+        <v>342.5954361023836</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>527.0860379408925</v>
+        <v>615.1959772549827</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>607.430194111239</v>
+        <v>265.0251642439064</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>735.7775520134618</v>
+        <v>499.8161495743535</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>323.3089377190942</v>
+        <v>294.4884185159959</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>485.9673897530242</v>
+        <v>345.4620590780557</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>435.0660023637615</v>
+        <v>552.1069656155275</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>259.0775079524507</v>
+        <v>613.6575688248392</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>407.407995129681</v>
+        <v>461.4129555135605</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>528.6737335601746</v>
+        <v>648.6295388675188</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>305.7125090859753</v>
+        <v>458.7938486037489</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>406.8296486028702</v>
+        <v>584.1997353469259</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>715.9713083767175</v>
+        <v>409.3287720074504</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>335.6937690666672</v>
+        <v>455.7098539859988</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>507.0725115043949</v>
+        <v>540.6469019587223</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>456.6862467197521</v>
+        <v>312.2951623651607</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>684.8546447739778</v>
+        <v>463.9377774258459</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>545.0864826432888</v>
+        <v>741.5793911089193</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>480.4236446811458</v>
+        <v>439.5868627231874</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>354.4169971729824</v>
+        <v>295.2887820073082</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>528.3176478433761</v>
+        <v>585.5725163404333</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>192.5511128612359</v>
+        <v>568.6867130663069</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>569.4369495274865</v>
+        <v>656.8579575570913</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>612.985903362267</v>
+        <v>428.6211432186433</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>553.3188703779214</v>
+        <v>606.8556277274805</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>256.9420478565286</v>
+        <v>274.4977089280874</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>513.7647963366577</v>
+        <v>614.3738194586767</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>389.5653692386519</v>
+        <v>332.420237571606</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>519.5695337052592</v>
+        <v>425.870309613994</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>295.6924906380673</v>
+        <v>408.2982914249543</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>651.8436631071969</v>
+        <v>463.1533574215974</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>607.7735651843911</v>
+        <v>321.8962841098647</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>167.6420154214547</v>
+        <v>706.2616502234268</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>519.6067287964144</v>
+        <v>416.1940705377277</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>548.9037274081395</v>
+        <v>220.859057338715</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>344.6431108422106</v>
+        <v>499.8871385700328</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>240.9295451298131</v>
+        <v>464.8763580691053</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>594.518294575131</v>
+        <v>437.8384037352886</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>220.1566776386782</v>
+        <v>440.0450441518581</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>586.8802520459244</v>
+        <v>688.6318576767953</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>584.8510376927396</v>
+        <v>265.9175931402502</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>698.4372389246155</v>
+        <v>621.7902565628754</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>705.724935771019</v>
+        <v>464.0170481041972</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>218.3387351287666</v>
+        <v>302.2725263486674</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>433.1732763456646</v>
+        <v>654.7073703081758</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>561.2219259010006</v>
+        <v>653.7770900388335</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>521.5165473202468</v>
+        <v>600.0782991742076</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>495.5194674664805</v>
+        <v>457.6014741711112</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>499.6135316484722</v>
+        <v>415.5567502227609</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>650.6090389289247</v>
+        <v>451.3854159903152</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>391.2432498488186</v>
+        <v>674.1975694337017</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>447.4299688655469</v>
+        <v>255.0928778255625</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>621.3456021036083</v>
+        <v>657.6576663170752</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>455.0811976724858</v>
+        <v>261.0087372936769</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>245.0555678015884</v>
+        <v>499.5835079186</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>541.7503320511607</v>
+        <v>257.1447933878548</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>360.1711509092458</v>
+        <v>623.7103710119699</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>619.5967909373572</v>
+        <v>292.5482172427193</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>459.3638036079711</v>
+        <v>365.9864834183856</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>711.3848444226315</v>
+        <v>617.4104892933199</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>431.743145374338</v>
+        <v>677.5626610904776</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>598.9070518515689</v>
+        <v>645.1986746550219</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>313.104970292553</v>
+        <v>566.2475655503906</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>590.9254037511731</v>
+        <v>206.1875969716253</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>291.8316568740671</v>
+        <v>574.4239925697747</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>333.6406746311266</v>
+        <v>569.0314067901285</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>283.6959917581162</v>
+        <v>627.0664256698501</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>459.8487258951042</v>
+        <v>332.6650249727754</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>457.3799878400615</v>
+        <v>219.1704027018173</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>378.3725195235077</v>
+        <v>383.5479177275814</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>627.4178908097372</v>
+        <v>416.4636796167338</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>432.9943363123392</v>
+        <v>526.2493969223332</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>255.7169363542205</v>
+        <v>429.1721497919679</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>467.8574160130068</v>
+        <v>441.9734831254951</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>258.8553816535401</v>
+        <v>648.5349487718545</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>532.8160619655922</v>
+        <v>344.0843877058673</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>440.7507985766129</v>
+        <v>545.7191102735444</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>572.6524450536215</v>
+        <v>639.551400426422</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>322.0200780235112</v>
+        <v>710.3592577383383</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>387.5766706626478</v>
+        <v>280.1592997396679</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>541.9319579209877</v>
+        <v>644.9543936236144</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>367.6316795150885</v>
+        <v>455.1535328633905</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>448.1708964960338</v>
+        <v>525.8609821515722</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>410.9779314173209</v>
+        <v>648.5793163567847</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>541.4965626354814</v>
+        <v>723.3960621824451</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>596.01694822642</v>
+        <v>438.18258041349</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>306.8828436922654</v>
+        <v>671.3302283049218</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>378.7498897240936</v>
+        <v>316.8210475551864</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>321.60764745151</v>
+        <v>411.6350907643676</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>322.7575778684579</v>
+        <v>665.9767188770733</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>562.9950562176393</v>
+        <v>495.6158535122297</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>501.9553976951673</v>
+        <v>266.5459461040472</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>570.8693026360502</v>
+        <v>709.6539459209407</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>213.586474967399</v>
+        <v>716.8765772234664</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>464.3102631666896</v>
+        <v>491.1209166586271</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>469.0359248410374</v>
+        <v>637.8107932132764</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>546.2187993354518</v>
+        <v>198.1513437355086</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>315.743515451004</v>
+        <v>323.5968298036094</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>422.7125920533797</v>
+        <v>467.9669283674229</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>288.0461314184847</v>
+        <v>458.5527772411033</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>293.2343807973912</v>
+        <v>768.0700764616344</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>467.1830268063476</v>
+        <v>299.6555370021527</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>529.4006736127177</v>
+        <v>684.4630089090966</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>588.090463445943</v>
+        <v>314.0706295002935</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>485.6170938205369</v>
+        <v>435.0238320946531</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>514.1001674245729</v>
+        <v>664.2199249768373</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>460.7307226024868</v>
+        <v>296.0356523750958</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>563.9366124062958</v>
+        <v>422.5672254165336</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>554.4563822726734</v>
+        <v>360.5272896371686</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>524.8827392624481</v>
+        <v>387.5724802154367</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>601.4120729948751</v>
+        <v>623.0488411405669</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>357.7010318100941</v>
+        <v>592.9717878578047</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>598.0046245971722</v>
+        <v>579.5465049447522</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>688.4300241824013</v>
+        <v>510.9509203052209</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>691.805472681851</v>
+        <v>550.4619749446952</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>409.6587600629462</v>
+        <v>262.4540702717841</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>640.2316173745539</v>
+        <v>327.9999581175267</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>286.5398560366547</v>
+        <v>245.2397895075836</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>653.6878376263674</v>
+        <v>474.9335226838264</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>329.8575520941058</v>
+        <v>254.978306922599</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>572.5257229991204</v>
+        <v>361.8398676971435</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>623.4690625650254</v>
+        <v>329.9400297950707</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>401.209731909586</v>
+        <v>448.3284024060362</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>461.4745230720522</v>
+        <v>503.7050696395685</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>582.5776003950275</v>
+        <v>426.4037018758848</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>615.4487762245608</v>
+        <v>535.9378531769262</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>438.287736677879</v>
+        <v>496.030944139449</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>592.8206781197329</v>
+        <v>505.5569459783259</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>583.942528111217</v>
+        <v>280.5460973061756</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>266.2542649016374</v>
+        <v>263.3938667965184</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>683.5592211062719</v>
+        <v>573.4263275062258</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>418.9220761454548</v>
+        <v>473.1702651034548</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>368.7687003641969</v>
+        <v>223.0350635897904</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>706.3401943671228</v>
+        <v>423.9463494787211</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>208.5222968859609</v>
+        <v>412.8459776528113</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>452.3031462287728</v>
+        <v>437.1706652719565</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>331.4545367678249</v>
+        <v>455.1163858603787</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>691.9682530670162</v>
+        <v>678.5544960770131</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>303.1281931227163</v>
+        <v>630.1731864442811</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>208.0120435948248</v>
+        <v>618.2791217003146</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>533.3743996654525</v>
+        <v>489.4236679468415</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>650.5192998417245</v>
+        <v>506.9567142671879</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>570.6587211883215</v>
+        <v>545.327464877841</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>295.1272525818458</v>
+        <v>588.9597839768741</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>198.61774410383</v>
+        <v>520.6176554446367</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>200.8051018897964</v>
+        <v>502.9429671003757</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>404.7613965561664</v>
+        <v>556.676584110933</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>503.9624578505561</v>
+        <v>414.047066658362</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>432.6785675384475</v>
+        <v>263.0352091868391</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>610.7760143747151</v>
+        <v>478.6306252146545</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>433.9438238875719</v>
+        <v>465.2979115739761</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>679.588495825939</v>
+        <v>335.351186801218</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>668.7611403293979</v>
+        <v>616.902706826604</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>475.7756276886194</v>
+        <v>412.5287056267336</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>540.6229371958894</v>
+        <v>201.4907918868825</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>290.9229507155396</v>
+        <v>351.6124540702544</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>634.0897173294629</v>
+        <v>411.5847341667928</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>496.7470358478917</v>
+        <v>627.8322178903918</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>661.4477315003509</v>
+        <v>682.7819583723343</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>419.6779206831387</v>
+        <v>134.4064277833805</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>542.3693697084647</v>
+        <v>523.6368624586324</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>255.7802422715464</v>
+        <v>431.3254711847949</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>456.5301229718775</v>
+        <v>190.2223840206854</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>450.9388803924305</v>
+        <v>782.5691572529165</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>565.7727692071171</v>
+        <v>386.645212772682</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>221.4132480607472</v>
+        <v>601.0332405314527</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>577.1356051505049</v>
+        <v>576.1652955704072</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>354.5357075257398</v>
+        <v>570.4545552253232</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>417.1530595047026</v>
+        <v>486.4199292836358</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>282.8235504056215</v>
+        <v>178.7094866479454</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>647.6705969844855</v>
+        <v>480.2199218600952</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>417.9773657879845</v>
+        <v>470.6637275797945</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>251.6901097165214</v>
+        <v>267.5308781617936</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>808.527718637759</v>
+        <v>364.5006426525779</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>211.1758340125682</v>
+        <v>486.7203520770249</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>399.4822863895012</v>
+        <v>359.7886836708678</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>483.3439245871968</v>
+        <v>352.9742800796691</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>457.6024884702184</v>
+        <v>280.1632694324854</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>364.7709068598957</v>
+        <v>332.4160913169596</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>259.9654539515529</v>
+        <v>355.19114770294</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>234.744971017088</v>
+        <v>482.5921879864625</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>577.571839608343</v>
+        <v>525.984271421292</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>570.2613878052736</v>
+        <v>283.1080984576375</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>388.0365987317103</v>
+        <v>633.3687136644129</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>594.4730741101806</v>
+        <v>652.6296142838479</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>313.3630585607877</v>
+        <v>591.330414841143</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>331.1990513932171</v>
+        <v>543.3144055937777</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>405.2946245495882</v>
+        <v>292.6500967785475</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>588.2073655716357</v>
+        <v>448.5881541191808</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>538.8148166646035</v>
+        <v>634.4054928977519</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>494.3003391435213</v>
+        <v>236.4048961617118</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>469.1091385458294</v>
+        <v>674.5936147495389</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>396.3678154433639</v>
+        <v>482.1598675695786</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>583.4005390110383</v>
+        <v>323.843396800613</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>479.1767619407401</v>
+        <v>544.4379314293417</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>700.9113864113235</v>
+        <v>286.5705529139668</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>506.8854496398688</v>
+        <v>288.1449104159831</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>271.6456501989045</v>
+        <v>524.6922763179927</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>365.7237092399774</v>
+        <v>188.2168469590549</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>493.1322212466094</v>
+        <v>464.0122024202331</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>507.3730793611883</v>
+        <v>645.4146386110841</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>285.2060429074808</v>
+        <v>373.5189233006171</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>561.7713915175011</v>
+        <v>547.6940711091125</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>383.972348722941</v>
+        <v>274.6820625784203</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>616.6074921937744</v>
+        <v>209.3699929899543</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>697.1005643288611</v>
+        <v>566.1746387477187</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>361.1698061750319</v>
+        <v>417.0896504489653</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>219.8425074110885</v>
+        <v>301.6257198315067</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>490.7142206792888</v>
+        <v>497.1922672493785</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>188.8998390972693</v>
+        <v>356.527207860289</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>245.2940022576898</v>
+        <v>504.8442517367905</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>464.8513368169186</v>
+        <v>279.2293625342688</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>501.2306046295046</v>
+        <v>592.159548162389</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>432.7678812863172</v>
+        <v>525.1245211163564</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>512.4015096024583</v>
+        <v>275.3267831202865</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>636.9846990397496</v>
+        <v>444.8967083418959</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>499.5440741808218</v>
+        <v>560.3174824392914</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>333.5683045668831</v>
+        <v>362.0632906215897</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>606.3715850699637</v>
+        <v>713.8171408773815</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>500.6906693864815</v>
+        <v>542.4419966775456</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>495.5553855108637</v>
+        <v>577.7333785270479</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>714.2412078946055</v>
+        <v>494.1472795619729</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>341.3056968469829</v>
+        <v>668.8249707740301</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>308.2154660406198</v>
+        <v>660.3475707236452</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>601.8259866128088</v>
+        <v>679.8654518259233</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>360.4209019962525</v>
+        <v>515.349451848704</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>280.2957142314406</v>
+        <v>367.4029575634417</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>185.2426813605993</v>
+        <v>611.3577882693289</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>506.1161691788427</v>
+        <v>600.1895262118938</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>673.1871482764211</v>
+        <v>630.0399705971777</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>323.0397652604617</v>
+        <v>430.388013008463</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>559.1235635265343</v>
+        <v>260.8010861596208</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>407.5556408971516</v>
+        <v>609.6810230276213</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>642.6598129393088</v>
+        <v>645.5272615634349</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>463.5779363362698</v>
+        <v>308.8275909198496</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>341.071793413473</v>
+        <v>658.8758401799322</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>438.6574278057569</v>
+        <v>751.8012846558041</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>292.3152094443402</v>
+        <v>296.3936222139233</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>733.0840773261106</v>
+        <v>427.0946395147034</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>394.7689877908941</v>
+        <v>167.1402184360571</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>553.2237425650125</v>
+        <v>469.6922554848319</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>246.5187676645647</v>
+        <v>459.3017586277061</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>601.3537141471204</v>
+        <v>740.1960018487191</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>330.5431995104591</v>
+        <v>396.0949646935438</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>395.7730897647337</v>
+        <v>336.1663161822484</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>417.254532658863</v>
+        <v>270.3549756477155</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>672.9518199608883</v>
+        <v>441.382756697103</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>520.2972647258212</v>
+        <v>236.1120021986097</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>472.0228487169911</v>
+        <v>351.5844202691352</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>349.3109503843701</v>
+        <v>461.4498444134184</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>596.7646347834674</v>
+        <v>265.4515774905386</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32188,7 +32188,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>761.1452439760282</v>
+        <v>257.2005213180229</v>
       </c>
     </row>
   </sheetData>
